--- a/Data/Data_Raw/Country codes & metadata/wbcodes_equiv_ILO.xlsx
+++ b/Data/Data_Raw/Country codes & metadata/wbcodes_equiv_ILO.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://alumniutdt-my.sharepoint.com/personal/yllohis_mail_utdt_edu/Documents/WB/Data-Portal-Brief-Generator/Data/Data_Raw/Country codes &amp; metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F001EA7F-7AB4-4705-827A-E17B2744A66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="8_{F001EA7F-7AB4-4705-827A-E17B2744A66D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2F74F5FE-194A-4B46-9624-903B00770461}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{F185F935-A0B0-4486-95AD-DA2DD1AEBCD5}"/>
   </bookViews>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1046" uniqueCount="616">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1088" uniqueCount="653">
   <si>
     <t>AFG</t>
   </si>
@@ -1888,6 +1888,117 @@
   </si>
   <si>
     <t>CHI</t>
+  </si>
+  <si>
+    <t>X01</t>
+  </si>
+  <si>
+    <t>World: Low income</t>
+  </si>
+  <si>
+    <t>X02</t>
+  </si>
+  <si>
+    <t>Low income</t>
+  </si>
+  <si>
+    <t>LIC</t>
+  </si>
+  <si>
+    <t>X03</t>
+  </si>
+  <si>
+    <t>World: Lower-middle income</t>
+  </si>
+  <si>
+    <t>X04</t>
+  </si>
+  <si>
+    <t>World: Upper-middle income</t>
+  </si>
+  <si>
+    <t>X05</t>
+  </si>
+  <si>
+    <t>World: High income</t>
+  </si>
+  <si>
+    <t>LMC</t>
+  </si>
+  <si>
+    <t>Lower middle income</t>
+  </si>
+  <si>
+    <t>UMC</t>
+  </si>
+  <si>
+    <t>Upper middle income</t>
+  </si>
+  <si>
+    <t>HIC</t>
+  </si>
+  <si>
+    <t>High income</t>
+  </si>
+  <si>
+    <t>LCN</t>
+  </si>
+  <si>
+    <t>EAS</t>
+  </si>
+  <si>
+    <t>ECS</t>
+  </si>
+  <si>
+    <t>SAS</t>
+  </si>
+  <si>
+    <t>SSF</t>
+  </si>
+  <si>
+    <t>MEA</t>
+  </si>
+  <si>
+    <t>Latin America and Caribbean</t>
+  </si>
+  <si>
+    <t>East Asia and Pacific</t>
+  </si>
+  <si>
+    <t>Europe and Central Asia</t>
+  </si>
+  <si>
+    <t>South Asia</t>
+  </si>
+  <si>
+    <t>Sub-Saharan Africa</t>
+  </si>
+  <si>
+    <t>Middle East and North Africa</t>
+  </si>
+  <si>
+    <t>X13</t>
+  </si>
+  <si>
+    <t>X60</t>
+  </si>
+  <si>
+    <t>X56</t>
+  </si>
+  <si>
+    <t>Southern Asia</t>
+  </si>
+  <si>
+    <t>X89</t>
+  </si>
+  <si>
+    <t>MENA</t>
+  </si>
+  <si>
+    <t>X26</t>
+  </si>
+  <si>
+    <t>Latin America and the Caribbean</t>
   </si>
 </sst>
 </file>
@@ -1929,10 +2040,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2267,671 +2377,670 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA8DCEAA-CB7F-495A-9730-06AE849733F4}">
-  <dimension ref="A1:D235"/>
+  <dimension ref="A1:D246"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D113" sqref="D113"/>
+    <sheetView tabSelected="1" topLeftCell="A232" workbookViewId="0">
+      <selection activeCell="B242" sqref="B242"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="48.7109375" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="15.28515625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9.140625" style="2"/>
+    <col min="1" max="1" width="8.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="48.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.5703125" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" t="s">
         <v>470</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" t="s">
         <v>471</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" t="s">
         <v>468</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" t="s">
         <v>469</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="2" t="str">
+      <c r="C2" t="str">
         <f>VLOOKUP(A2,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>AFG</v>
       </c>
-      <c r="D2" s="2" t="str">
+      <c r="D2" t="str">
         <f>VLOOKUP(A2,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Afghanistan</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="2" t="str">
+      <c r="C3" t="str">
         <f>VLOOKUP(A3,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>ALB</v>
       </c>
-      <c r="D3" s="2" t="str">
+      <c r="D3" t="str">
         <f>VLOOKUP(A3,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Albania</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
+      <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="str">
+      <c r="C4" t="str">
         <f>VLOOKUP(A4,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>DZA</v>
       </c>
-      <c r="D4" s="2" t="str">
+      <c r="D4" t="str">
         <f>VLOOKUP(A4,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Algeria</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="str">
+      <c r="C5" t="str">
         <f>VLOOKUP(A5,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>ASM</v>
       </c>
-      <c r="D5" s="2" t="str">
+      <c r="D5" t="str">
         <f>VLOOKUP(A5,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>American Samoa</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="A6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="str">
+      <c r="C6" t="str">
         <f>VLOOKUP(A6,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>AND</v>
       </c>
-      <c r="D6" s="2" t="str">
+      <c r="D6" t="str">
         <f>VLOOKUP(A6,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Andorra</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B7" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="str">
+      <c r="C7" t="str">
         <f>VLOOKUP(A7,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>AGO</v>
       </c>
-      <c r="D7" s="2" t="str">
+      <c r="D7" t="str">
         <f>VLOOKUP(A7,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Angola</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="A8" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="str">
+      <c r="C8" t="str">
         <f>VLOOKUP(A8,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>AIA</v>
       </c>
-      <c r="D8" s="2" t="str">
+      <c r="D8" t="str">
         <f>VLOOKUP(A8,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Anguila</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2" t="str">
+      <c r="C9" t="str">
         <f>VLOOKUP(A9,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>ATG</v>
       </c>
-      <c r="D9" s="2" t="str">
+      <c r="D9" t="str">
         <f>VLOOKUP(A9,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Antigua and Barbuda</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="A10" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="2" t="str">
+      <c r="C10" t="str">
         <f>VLOOKUP(A10,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>ARG</v>
       </c>
-      <c r="D10" s="2" t="str">
+      <c r="D10" t="str">
         <f>VLOOKUP(A10,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Argentina</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="A11" t="s">
         <v>18</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" t="s">
         <v>19</v>
       </c>
-      <c r="C11" s="2" t="str">
+      <c r="C11" t="str">
         <f>VLOOKUP(A11,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>ARM</v>
       </c>
-      <c r="D11" s="2" t="str">
+      <c r="D11" t="str">
         <f>VLOOKUP(A11,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Armenia</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="A12" t="s">
         <v>20</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" s="2" t="str">
+      <c r="C12" t="str">
         <f>VLOOKUP(A12,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>ABW</v>
       </c>
-      <c r="D12" s="2" t="str">
+      <c r="D12" t="str">
         <f>VLOOKUP(A12,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Aruba</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2" t="str">
+      <c r="C13" t="str">
         <f>VLOOKUP(A13,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>AUS</v>
       </c>
-      <c r="D13" s="2" t="str">
+      <c r="D13" t="str">
         <f>VLOOKUP(A13,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Australia</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" t="s">
         <v>24</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" t="s">
         <v>25</v>
       </c>
-      <c r="C14" s="2" t="str">
+      <c r="C14" t="str">
         <f>VLOOKUP(A14,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>AUT</v>
       </c>
-      <c r="D14" s="2" t="str">
+      <c r="D14" t="str">
         <f>VLOOKUP(A14,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Austria</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" t="s">
         <v>26</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B15" t="s">
         <v>27</v>
       </c>
-      <c r="C15" s="2" t="str">
+      <c r="C15" t="str">
         <f>VLOOKUP(A15,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>AZE</v>
       </c>
-      <c r="D15" s="2" t="str">
+      <c r="D15" t="str">
         <f>VLOOKUP(A15,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Azerbaijan</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="A16" t="s">
         <v>28</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B16" t="s">
         <v>29</v>
       </c>
-      <c r="C16" s="2" t="str">
+      <c r="C16" t="str">
         <f>VLOOKUP(A16,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>BHS</v>
       </c>
-      <c r="D16" s="2" t="str">
+      <c r="D16" t="str">
         <f>VLOOKUP(A16,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Bahamas, The</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="A17" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="2" t="s">
+      <c r="B17" t="s">
         <v>31</v>
       </c>
-      <c r="C17" s="2" t="str">
+      <c r="C17" t="str">
         <f>VLOOKUP(A17,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>BHR</v>
       </c>
-      <c r="D17" s="2" t="str">
+      <c r="D17" t="str">
         <f>VLOOKUP(A17,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Bahrain</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="A18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="2" t="s">
+      <c r="B18" t="s">
         <v>33</v>
       </c>
-      <c r="C18" s="2" t="str">
+      <c r="C18" t="str">
         <f>VLOOKUP(A18,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>BGD</v>
       </c>
-      <c r="D18" s="2" t="str">
+      <c r="D18" t="str">
         <f>VLOOKUP(A18,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Bangladesh</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="A19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B19" t="s">
         <v>35</v>
       </c>
-      <c r="C19" s="2" t="str">
+      <c r="C19" t="str">
         <f>VLOOKUP(A19,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>BRB</v>
       </c>
-      <c r="D19" s="2" t="str">
+      <c r="D19" t="str">
         <f>VLOOKUP(A19,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Barbados</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="A20" t="s">
         <v>36</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B20" t="s">
         <v>37</v>
       </c>
-      <c r="C20" s="2" t="str">
+      <c r="C20" t="str">
         <f>VLOOKUP(A20,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>BLR</v>
       </c>
-      <c r="D20" s="2" t="str">
+      <c r="D20" t="str">
         <f>VLOOKUP(A20,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Belarus</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="A21" t="s">
         <v>38</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B21" t="s">
         <v>39</v>
       </c>
-      <c r="C21" s="2" t="str">
+      <c r="C21" t="str">
         <f>VLOOKUP(A21,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>BEL</v>
       </c>
-      <c r="D21" s="2" t="str">
+      <c r="D21" t="str">
         <f>VLOOKUP(A21,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Belgium</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="A22" t="s">
         <v>40</v>
       </c>
-      <c r="B22" s="2" t="s">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="2" t="str">
+      <c r="C22" t="str">
         <f>VLOOKUP(A22,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>BLZ</v>
       </c>
-      <c r="D22" s="2" t="str">
+      <c r="D22" t="str">
         <f>VLOOKUP(A22,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Belize</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="A23" t="s">
         <v>42</v>
       </c>
-      <c r="B23" s="2" t="s">
+      <c r="B23" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="2" t="str">
+      <c r="C23" t="str">
         <f>VLOOKUP(A23,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>BEN</v>
       </c>
-      <c r="D23" s="2" t="str">
+      <c r="D23" t="str">
         <f>VLOOKUP(A23,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Benin</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="A24" t="s">
         <v>44</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="B24" t="s">
         <v>45</v>
       </c>
-      <c r="C24" s="2" t="str">
+      <c r="C24" t="str">
         <f>VLOOKUP(A24,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>BMU</v>
       </c>
-      <c r="D24" s="2" t="str">
+      <c r="D24" t="str">
         <f>VLOOKUP(A24,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Bermuda</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="A25" t="s">
         <v>46</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="B25" t="s">
         <v>47</v>
       </c>
-      <c r="C25" s="2" t="str">
+      <c r="C25" t="str">
         <f>VLOOKUP(A25,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>BTN</v>
       </c>
-      <c r="D25" s="2" t="str">
+      <c r="D25" t="str">
         <f>VLOOKUP(A25,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Bhutan</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="A26" t="s">
         <v>48</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="B26" t="s">
         <v>49</v>
       </c>
-      <c r="C26" s="2" t="str">
+      <c r="C26" t="str">
         <f>VLOOKUP(A26,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>BOL</v>
       </c>
-      <c r="D26" s="2" t="str">
+      <c r="D26" t="str">
         <f>VLOOKUP(A26,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Bolivia</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+      <c r="A27" t="s">
         <v>50</v>
       </c>
-      <c r="B27" s="2" t="s">
+      <c r="B27" t="s">
         <v>51</v>
       </c>
-      <c r="C27" s="2" t="str">
+      <c r="C27" t="str">
         <f>VLOOKUP(A27,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>BIH</v>
       </c>
-      <c r="D27" s="2" t="str">
+      <c r="D27" t="str">
         <f>VLOOKUP(A27,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Bosnia and Herzegovina</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+      <c r="A28" t="s">
         <v>52</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="B28" t="s">
         <v>53</v>
       </c>
-      <c r="C28" s="2" t="str">
+      <c r="C28" t="str">
         <f>VLOOKUP(A28,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>BWA</v>
       </c>
-      <c r="D28" s="2" t="str">
+      <c r="D28" t="str">
         <f>VLOOKUP(A28,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Botswana</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
+      <c r="A29" t="s">
         <v>54</v>
       </c>
-      <c r="B29" s="2" t="s">
+      <c r="B29" t="s">
         <v>55</v>
       </c>
-      <c r="C29" s="2" t="str">
+      <c r="C29" t="str">
         <f>VLOOKUP(A29,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>BRA</v>
       </c>
-      <c r="D29" s="2" t="str">
+      <c r="D29" t="str">
         <f>VLOOKUP(A29,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Brazil</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
+      <c r="A30" t="s">
         <v>56</v>
       </c>
-      <c r="B30" s="2" t="s">
+      <c r="B30" t="s">
         <v>57</v>
       </c>
-      <c r="C30" s="2" t="str">
+      <c r="C30" t="str">
         <f>VLOOKUP(A30,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>VGB</v>
       </c>
-      <c r="D30" s="2" t="str">
+      <c r="D30" t="str">
         <f>VLOOKUP(A30,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>British Virgin Islands</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
+      <c r="A31" t="s">
         <v>58</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" t="s">
         <v>59</v>
       </c>
-      <c r="C31" s="2" t="str">
+      <c r="C31" t="str">
         <f>VLOOKUP(A31,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>BRN</v>
       </c>
-      <c r="D31" s="2" t="str">
+      <c r="D31" t="str">
         <f>VLOOKUP(A31,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Brunei</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
+      <c r="A32" t="s">
         <v>60</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" t="s">
         <v>61</v>
       </c>
-      <c r="C32" s="2" t="str">
+      <c r="C32" t="str">
         <f>VLOOKUP(A32,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>BGR</v>
       </c>
-      <c r="D32" s="2" t="str">
+      <c r="D32" t="str">
         <f>VLOOKUP(A32,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Bulgaria</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="A33" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" t="s">
         <v>63</v>
       </c>
-      <c r="C33" s="2" t="str">
+      <c r="C33" t="str">
         <f>VLOOKUP(A33,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>BFA</v>
       </c>
-      <c r="D33" s="2" t="str">
+      <c r="D33" t="str">
         <f>VLOOKUP(A33,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Burkina Faso</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
+      <c r="A34" t="s">
         <v>64</v>
       </c>
-      <c r="B34" s="2" t="s">
+      <c r="B34" t="s">
         <v>65</v>
       </c>
-      <c r="C34" s="2" t="str">
+      <c r="C34" t="str">
         <f>VLOOKUP(A34,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>BDI</v>
       </c>
-      <c r="D34" s="2" t="str">
+      <c r="D34" t="str">
         <f>VLOOKUP(A34,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Burundi</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
+      <c r="A35" t="s">
         <v>66</v>
       </c>
-      <c r="B35" s="2" t="s">
+      <c r="B35" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="2" t="str">
+      <c r="C35" t="str">
         <f>VLOOKUP(A35,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>CPV</v>
       </c>
-      <c r="D35" s="2" t="str">
+      <c r="D35" t="str">
         <f>VLOOKUP(A35,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Cape Verde</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
+      <c r="A36" t="s">
         <v>68</v>
       </c>
-      <c r="B36" s="2" t="s">
+      <c r="B36" t="s">
         <v>69</v>
       </c>
-      <c r="C36" s="2" t="str">
+      <c r="C36" t="str">
         <f>VLOOKUP(A36,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>KHM</v>
       </c>
-      <c r="D36" s="2" t="str">
+      <c r="D36" t="str">
         <f>VLOOKUP(A36,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Cambodia</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
+      <c r="A37" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="2" t="s">
+      <c r="B37" t="s">
         <v>71</v>
       </c>
-      <c r="C37" s="2" t="str">
+      <c r="C37" t="str">
         <f>VLOOKUP(A37,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>CMR</v>
       </c>
-      <c r="D37" s="2" t="str">
+      <c r="D37" t="str">
         <f>VLOOKUP(A37,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Cameroon</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
+      <c r="A38" t="s">
         <v>72</v>
       </c>
-      <c r="B38" s="2" t="s">
+      <c r="B38" t="s">
         <v>73</v>
       </c>
-      <c r="C38" s="2" t="str">
+      <c r="C38" t="str">
         <f>VLOOKUP(A38,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>CAN</v>
       </c>
-      <c r="D38" s="2" t="str">
+      <c r="D38" t="str">
         <f>VLOOKUP(A38,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Canada</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
+      <c r="A39" t="s">
         <v>74</v>
       </c>
-      <c r="B39" s="2" t="s">
+      <c r="B39" t="s">
         <v>75</v>
       </c>
-      <c r="C39" s="2" t="str">
+      <c r="C39" t="str">
         <f>VLOOKUP(A39,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>CYM</v>
       </c>
-      <c r="D39" s="2" t="str">
+      <c r="D39" t="str">
         <f>VLOOKUP(A39,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Cayman Islands</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
+      <c r="A40" t="s">
         <v>76</v>
       </c>
-      <c r="B40" s="2" t="s">
+      <c r="B40" t="s">
         <v>77</v>
       </c>
-      <c r="C40" s="2" t="str">
+      <c r="C40" t="str">
         <f>VLOOKUP(A40,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>CAF</v>
       </c>
-      <c r="D40" s="2" t="str">
+      <c r="D40" t="str">
         <f>VLOOKUP(A40,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Central African Republic</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
+      <c r="A41" t="s">
         <v>78</v>
       </c>
-      <c r="B41" s="2" t="s">
+      <c r="B41" t="s">
         <v>79</v>
       </c>
-      <c r="C41" s="2" t="str">
+      <c r="C41" t="str">
         <f>VLOOKUP(A41,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>TCD</v>
       </c>
-      <c r="D41" s="2" t="str">
+      <c r="D41" t="str">
         <f>VLOOKUP(A41,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Chad</v>
       </c>
@@ -2951,1121 +3060,1121 @@
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
+      <c r="A43" t="s">
         <v>82</v>
       </c>
-      <c r="B43" s="2" t="s">
+      <c r="B43" t="s">
         <v>83</v>
       </c>
-      <c r="C43" s="2" t="str">
+      <c r="C43" t="str">
         <f>VLOOKUP(A43,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>CHL</v>
       </c>
-      <c r="D43" s="2" t="str">
+      <c r="D43" t="str">
         <f>VLOOKUP(A43,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Chile</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
+      <c r="A44" t="s">
         <v>84</v>
       </c>
-      <c r="B44" s="2" t="s">
+      <c r="B44" t="s">
         <v>85</v>
       </c>
-      <c r="C44" s="2" t="str">
+      <c r="C44" t="str">
         <f>VLOOKUP(A44,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>CHN</v>
       </c>
-      <c r="D44" s="2" t="str">
+      <c r="D44" t="str">
         <f>VLOOKUP(A44,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>China</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
+      <c r="A45" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="2" t="s">
+      <c r="B45" t="s">
         <v>87</v>
       </c>
-      <c r="C45" s="2" t="str">
+      <c r="C45" t="str">
         <f>VLOOKUP(A45,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>COL</v>
       </c>
-      <c r="D45" s="2" t="str">
+      <c r="D45" t="str">
         <f>VLOOKUP(A45,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Colombia</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
+      <c r="A46" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="2" t="s">
+      <c r="B46" t="s">
         <v>89</v>
       </c>
-      <c r="C46" s="2" t="str">
+      <c r="C46" t="str">
         <f>VLOOKUP(A46,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>COM</v>
       </c>
-      <c r="D46" s="2" t="str">
+      <c r="D46" t="str">
         <f>VLOOKUP(A46,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Comoros</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
+      <c r="A47" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="2" t="s">
+      <c r="B47" t="s">
         <v>91</v>
       </c>
-      <c r="C47" s="2" t="str">
+      <c r="C47" t="str">
         <f>VLOOKUP(A47,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>COG</v>
       </c>
-      <c r="D47" s="2" t="str">
+      <c r="D47" t="str">
         <f>VLOOKUP(A47,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Congo, Rep.</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
+      <c r="A48" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="2" t="s">
+      <c r="B48" t="s">
         <v>93</v>
       </c>
-      <c r="C48" s="2" t="str">
+      <c r="C48" t="str">
         <f>VLOOKUP(A48,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>COD</v>
       </c>
-      <c r="D48" s="2" t="str">
+      <c r="D48" t="str">
         <f>VLOOKUP(A48,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Congo, Dem. Rep.</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
+      <c r="A49" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" t="s">
         <v>95</v>
       </c>
-      <c r="C49" s="2" t="str">
+      <c r="C49" t="str">
         <f>VLOOKUP(A49,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>COK</v>
       </c>
-      <c r="D49" s="2" t="str">
+      <c r="D49" t="str">
         <f>VLOOKUP(A49,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Cook Islands</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
+      <c r="A50" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" t="s">
         <v>97</v>
       </c>
-      <c r="C50" s="2" t="str">
+      <c r="C50" t="str">
         <f>VLOOKUP(A50,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>CRI</v>
       </c>
-      <c r="D50" s="2" t="str">
+      <c r="D50" t="str">
         <f>VLOOKUP(A50,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Costa Rica</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
+      <c r="A51" t="s">
         <v>98</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" t="s">
         <v>99</v>
       </c>
-      <c r="C51" s="2" t="str">
+      <c r="C51" t="str">
         <f>VLOOKUP(A51,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>CIV</v>
       </c>
-      <c r="D51" s="2" t="str">
+      <c r="D51" t="str">
         <f>VLOOKUP(A51,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Cote d'Ivoire</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
+      <c r="A52" t="s">
         <v>100</v>
       </c>
-      <c r="B52" s="2" t="s">
+      <c r="B52" t="s">
         <v>101</v>
       </c>
-      <c r="C52" s="2" t="str">
+      <c r="C52" t="str">
         <f>VLOOKUP(A52,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>HRV</v>
       </c>
-      <c r="D52" s="2" t="str">
+      <c r="D52" t="str">
         <f>VLOOKUP(A52,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Croatia</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
+      <c r="A53" t="s">
         <v>102</v>
       </c>
-      <c r="B53" s="2" t="s">
+      <c r="B53" t="s">
         <v>103</v>
       </c>
-      <c r="C53" s="2" t="str">
+      <c r="C53" t="str">
         <f>VLOOKUP(A53,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>CUB</v>
       </c>
-      <c r="D53" s="2" t="str">
+      <c r="D53" t="str">
         <f>VLOOKUP(A53,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Cuba</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="2" t="s">
+      <c r="A54" t="s">
         <v>104</v>
       </c>
-      <c r="B54" s="2" t="s">
+      <c r="B54" t="s">
         <v>105</v>
       </c>
-      <c r="C54" s="2" t="str">
+      <c r="C54" t="str">
         <f>VLOOKUP(A54,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>CUW</v>
       </c>
-      <c r="D54" s="2" t="str">
+      <c r="D54" t="str">
         <f>VLOOKUP(A54,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Curacao</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
+      <c r="A55" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="2" t="s">
+      <c r="B55" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="2" t="str">
+      <c r="C55" t="str">
         <f>VLOOKUP(A55,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>CYP</v>
       </c>
-      <c r="D55" s="2" t="str">
+      <c r="D55" t="str">
         <f>VLOOKUP(A55,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Cyprus</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A56" s="2" t="s">
+      <c r="A56" t="s">
         <v>108</v>
       </c>
-      <c r="B56" s="2" t="s">
+      <c r="B56" t="s">
         <v>109</v>
       </c>
-      <c r="C56" s="2" t="str">
+      <c r="C56" t="str">
         <f>VLOOKUP(A56,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>CZE</v>
       </c>
-      <c r="D56" s="2" t="str">
+      <c r="D56" t="str">
         <f>VLOOKUP(A56,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Czech Republic</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A57" s="2" t="s">
+      <c r="A57" t="s">
         <v>110</v>
       </c>
-      <c r="B57" s="2" t="s">
+      <c r="B57" t="s">
         <v>111</v>
       </c>
-      <c r="C57" s="2" t="str">
+      <c r="C57" t="str">
         <f>VLOOKUP(A57,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>DNK</v>
       </c>
-      <c r="D57" s="2" t="str">
+      <c r="D57" t="str">
         <f>VLOOKUP(A57,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Denmark</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
+      <c r="A58" t="s">
         <v>112</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" t="s">
         <v>113</v>
       </c>
-      <c r="C58" s="2" t="str">
+      <c r="C58" t="str">
         <f>VLOOKUP(A58,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>DJI</v>
       </c>
-      <c r="D58" s="2" t="str">
+      <c r="D58" t="str">
         <f>VLOOKUP(A58,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Djibouti</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
+      <c r="A59" t="s">
         <v>114</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" t="s">
         <v>115</v>
       </c>
-      <c r="C59" s="2" t="str">
+      <c r="C59" t="str">
         <f>VLOOKUP(A59,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>DMA</v>
       </c>
-      <c r="D59" s="2" t="str">
+      <c r="D59" t="str">
         <f>VLOOKUP(A59,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Dominica</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
+      <c r="A60" t="s">
         <v>116</v>
       </c>
-      <c r="B60" s="2" t="s">
+      <c r="B60" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="2" t="str">
+      <c r="C60" t="str">
         <f>VLOOKUP(A60,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>DOM</v>
       </c>
-      <c r="D60" s="2" t="str">
+      <c r="D60" t="str">
         <f>VLOOKUP(A60,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Dominican Republic</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A61" s="2" t="s">
+      <c r="A61" t="s">
         <v>118</v>
       </c>
-      <c r="B61" s="2" t="s">
+      <c r="B61" t="s">
         <v>119</v>
       </c>
-      <c r="C61" s="2" t="str">
+      <c r="C61" t="str">
         <f>VLOOKUP(A61,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>ECU</v>
       </c>
-      <c r="D61" s="2" t="str">
+      <c r="D61" t="str">
         <f>VLOOKUP(A61,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Ecuador</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A62" s="2" t="s">
+      <c r="A62" t="s">
         <v>120</v>
       </c>
-      <c r="B62" s="2" t="s">
+      <c r="B62" t="s">
         <v>121</v>
       </c>
-      <c r="C62" s="2" t="str">
+      <c r="C62" t="str">
         <f>VLOOKUP(A62,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>EGY</v>
       </c>
-      <c r="D62" s="2" t="str">
+      <c r="D62" t="str">
         <f>VLOOKUP(A62,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Egypt, Arab Rep.</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A63" s="2" t="s">
+      <c r="A63" t="s">
         <v>122</v>
       </c>
-      <c r="B63" s="2" t="s">
+      <c r="B63" t="s">
         <v>123</v>
       </c>
-      <c r="C63" s="2" t="str">
+      <c r="C63" t="str">
         <f>VLOOKUP(A63,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>SLV</v>
       </c>
-      <c r="D63" s="2" t="str">
+      <c r="D63" t="str">
         <f>VLOOKUP(A63,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>El Salvador</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A64" s="2" t="s">
+      <c r="A64" t="s">
         <v>124</v>
       </c>
-      <c r="B64" s="2" t="s">
+      <c r="B64" t="s">
         <v>125</v>
       </c>
-      <c r="C64" s="2" t="str">
+      <c r="C64" t="str">
         <f>VLOOKUP(A64,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>GNQ</v>
       </c>
-      <c r="D64" s="2" t="str">
+      <c r="D64" t="str">
         <f>VLOOKUP(A64,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Equatorial Guinea</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A65" s="2" t="s">
+      <c r="A65" t="s">
         <v>126</v>
       </c>
-      <c r="B65" s="2" t="s">
+      <c r="B65" t="s">
         <v>127</v>
       </c>
-      <c r="C65" s="2" t="str">
+      <c r="C65" t="str">
         <f>VLOOKUP(A65,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>ERI</v>
       </c>
-      <c r="D65" s="2" t="str">
+      <c r="D65" t="str">
         <f>VLOOKUP(A65,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Eritrea</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A66" s="2" t="s">
+      <c r="A66" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="2" t="s">
+      <c r="B66" t="s">
         <v>129</v>
       </c>
-      <c r="C66" s="2" t="str">
+      <c r="C66" t="str">
         <f>VLOOKUP(A66,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>EST</v>
       </c>
-      <c r="D66" s="2" t="str">
+      <c r="D66" t="str">
         <f>VLOOKUP(A66,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Estonia</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A67" s="2" t="s">
+      <c r="A67" t="s">
         <v>130</v>
       </c>
-      <c r="B67" s="2" t="s">
+      <c r="B67" t="s">
         <v>131</v>
       </c>
-      <c r="C67" s="2" t="str">
+      <c r="C67" t="str">
         <f>VLOOKUP(A67,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>SWZ</v>
       </c>
-      <c r="D67" s="2" t="str">
+      <c r="D67" t="str">
         <f>VLOOKUP(A67,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Swaziland</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A68" s="2" t="s">
+      <c r="A68" t="s">
         <v>132</v>
       </c>
-      <c r="B68" s="2" t="s">
+      <c r="B68" t="s">
         <v>133</v>
       </c>
-      <c r="C68" s="2" t="str">
+      <c r="C68" t="str">
         <f>VLOOKUP(A68,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>ETH</v>
       </c>
-      <c r="D68" s="2" t="str">
+      <c r="D68" t="str">
         <f>VLOOKUP(A68,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Ethiopia (excludes Eritrea)</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A69" s="2" t="s">
+      <c r="A69" t="s">
         <v>134</v>
       </c>
-      <c r="B69" s="2" t="s">
+      <c r="B69" t="s">
         <v>135</v>
       </c>
-      <c r="C69" s="2" t="str">
+      <c r="C69" t="str">
         <f>VLOOKUP(A69,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>FLK</v>
       </c>
-      <c r="D69" s="2" t="str">
+      <c r="D69" t="str">
         <f>VLOOKUP(A69,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Falkland Island</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A70" s="2" t="s">
+      <c r="A70" t="s">
         <v>136</v>
       </c>
-      <c r="B70" s="2" t="s">
+      <c r="B70" t="s">
         <v>137</v>
       </c>
-      <c r="C70" s="2" t="str">
+      <c r="C70" t="str">
         <f>VLOOKUP(A70,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>FRO</v>
       </c>
-      <c r="D70" s="2" t="str">
+      <c r="D70" t="str">
         <f>VLOOKUP(A70,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Faeroe Islands</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A71" s="2" t="s">
+      <c r="A71" t="s">
         <v>138</v>
       </c>
-      <c r="B71" s="2" t="s">
+      <c r="B71" t="s">
         <v>139</v>
       </c>
-      <c r="C71" s="2" t="str">
+      <c r="C71" t="str">
         <f>VLOOKUP(A71,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>FJI</v>
       </c>
-      <c r="D71" s="2" t="str">
+      <c r="D71" t="str">
         <f>VLOOKUP(A71,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Fiji</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A72" s="2" t="s">
+      <c r="A72" t="s">
         <v>140</v>
       </c>
-      <c r="B72" s="2" t="s">
+      <c r="B72" t="s">
         <v>141</v>
       </c>
-      <c r="C72" s="2" t="str">
+      <c r="C72" t="str">
         <f>VLOOKUP(A72,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>FIN</v>
       </c>
-      <c r="D72" s="2" t="str">
+      <c r="D72" t="str">
         <f>VLOOKUP(A72,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Finland</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A73" s="2" t="s">
+      <c r="A73" t="s">
         <v>142</v>
       </c>
-      <c r="B73" s="2" t="s">
+      <c r="B73" t="s">
         <v>143</v>
       </c>
-      <c r="C73" s="2" t="str">
+      <c r="C73" t="str">
         <f>VLOOKUP(A73,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>FRA</v>
       </c>
-      <c r="D73" s="2" t="str">
+      <c r="D73" t="str">
         <f>VLOOKUP(A73,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>France</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A74" s="2" t="s">
+      <c r="A74" t="s">
         <v>144</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" t="s">
         <v>145</v>
       </c>
-      <c r="C74" s="2" t="str">
+      <c r="C74" t="str">
         <f>VLOOKUP(A74,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>GUF</v>
       </c>
-      <c r="D74" s="2" t="str">
+      <c r="D74" t="str">
         <f>VLOOKUP(A74,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>French Guiana</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A75" s="2" t="s">
+      <c r="A75" t="s">
         <v>146</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" t="s">
         <v>147</v>
       </c>
-      <c r="C75" s="2" t="str">
+      <c r="C75" t="str">
         <f>VLOOKUP(A75,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>PYF</v>
       </c>
-      <c r="D75" s="2" t="str">
+      <c r="D75" t="str">
         <f>VLOOKUP(A75,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>French Polynesia</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
+      <c r="A76" t="s">
         <v>148</v>
       </c>
-      <c r="B76" s="2" t="s">
+      <c r="B76" t="s">
         <v>149</v>
       </c>
-      <c r="C76" s="2" t="str">
+      <c r="C76" t="str">
         <f>VLOOKUP(A76,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>GAB</v>
       </c>
-      <c r="D76" s="2" t="str">
+      <c r="D76" t="str">
         <f>VLOOKUP(A76,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Gabon</v>
       </c>
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
+      <c r="A77" t="s">
         <v>150</v>
       </c>
-      <c r="B77" s="2" t="s">
+      <c r="B77" t="s">
         <v>151</v>
       </c>
-      <c r="C77" s="2" t="str">
+      <c r="C77" t="str">
         <f>VLOOKUP(A77,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>GMB</v>
       </c>
-      <c r="D77" s="2" t="str">
+      <c r="D77" t="str">
         <f>VLOOKUP(A77,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Gambia, The</v>
       </c>
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A78" s="2" t="s">
+      <c r="A78" t="s">
         <v>152</v>
       </c>
-      <c r="B78" s="2" t="s">
+      <c r="B78" t="s">
         <v>153</v>
       </c>
-      <c r="C78" s="2" t="str">
+      <c r="C78" t="str">
         <f>VLOOKUP(A78,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>GEO</v>
       </c>
-      <c r="D78" s="2" t="str">
+      <c r="D78" t="str">
         <f>VLOOKUP(A78,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Georgia</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A79" s="2" t="s">
+      <c r="A79" t="s">
         <v>154</v>
       </c>
-      <c r="B79" s="2" t="s">
+      <c r="B79" t="s">
         <v>155</v>
       </c>
-      <c r="C79" s="2" t="str">
+      <c r="C79" t="str">
         <f>VLOOKUP(A79,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>DEU</v>
       </c>
-      <c r="D79" s="2" t="str">
+      <c r="D79" t="str">
         <f>VLOOKUP(A79,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Germany</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A80" s="2" t="s">
+      <c r="A80" t="s">
         <v>156</v>
       </c>
-      <c r="B80" s="2" t="s">
+      <c r="B80" t="s">
         <v>157</v>
       </c>
-      <c r="C80" s="2" t="str">
+      <c r="C80" t="str">
         <f>VLOOKUP(A80,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>GHA</v>
       </c>
-      <c r="D80" s="2" t="str">
+      <c r="D80" t="str">
         <f>VLOOKUP(A80,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Ghana</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A81" s="2" t="s">
+      <c r="A81" t="s">
         <v>158</v>
       </c>
-      <c r="B81" s="2" t="s">
+      <c r="B81" t="s">
         <v>159</v>
       </c>
-      <c r="C81" s="2" t="str">
+      <c r="C81" t="str">
         <f>VLOOKUP(A81,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>GIB</v>
       </c>
-      <c r="D81" s="2" t="str">
+      <c r="D81" t="str">
         <f>VLOOKUP(A81,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Gibraltar</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A82" s="2" t="s">
+      <c r="A82" t="s">
         <v>160</v>
       </c>
-      <c r="B82" s="2" t="s">
+      <c r="B82" t="s">
         <v>161</v>
       </c>
-      <c r="C82" s="2" t="str">
+      <c r="C82" t="str">
         <f>VLOOKUP(A82,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>GRC</v>
       </c>
-      <c r="D82" s="2" t="str">
+      <c r="D82" t="str">
         <f>VLOOKUP(A82,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Greece</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A83" s="2" t="s">
+      <c r="A83" t="s">
         <v>162</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" t="s">
         <v>163</v>
       </c>
-      <c r="C83" s="2" t="str">
+      <c r="C83" t="str">
         <f>VLOOKUP(A83,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>GRL</v>
       </c>
-      <c r="D83" s="2" t="str">
+      <c r="D83" t="str">
         <f>VLOOKUP(A83,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Greenland</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A84" s="2" t="s">
+      <c r="A84" t="s">
         <v>164</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" t="s">
         <v>165</v>
       </c>
-      <c r="C84" s="2" t="str">
+      <c r="C84" t="str">
         <f>VLOOKUP(A84,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>GRD</v>
       </c>
-      <c r="D84" s="2" t="str">
+      <c r="D84" t="str">
         <f>VLOOKUP(A84,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Grenada</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A85" s="2" t="s">
+      <c r="A85" t="s">
         <v>166</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" t="s">
         <v>167</v>
       </c>
-      <c r="C85" s="2" t="str">
+      <c r="C85" t="str">
         <f>VLOOKUP(A85,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>GLP</v>
       </c>
-      <c r="D85" s="2" t="str">
+      <c r="D85" t="str">
         <f>VLOOKUP(A85,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Guadeloupe</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A86" s="2" t="s">
+      <c r="A86" t="s">
         <v>168</v>
       </c>
-      <c r="B86" s="2" t="s">
+      <c r="B86" t="s">
         <v>169</v>
       </c>
-      <c r="C86" s="2" t="str">
+      <c r="C86" t="str">
         <f>VLOOKUP(A86,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>GUM</v>
       </c>
-      <c r="D86" s="2" t="str">
+      <c r="D86" t="str">
         <f>VLOOKUP(A86,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Guam</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A87" s="2" t="s">
+      <c r="A87" t="s">
         <v>170</v>
       </c>
-      <c r="B87" s="2" t="s">
+      <c r="B87" t="s">
         <v>171</v>
       </c>
-      <c r="C87" s="2" t="str">
+      <c r="C87" t="str">
         <f>VLOOKUP(A87,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>GTM</v>
       </c>
-      <c r="D87" s="2" t="str">
+      <c r="D87" t="str">
         <f>VLOOKUP(A87,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Guatemala</v>
       </c>
     </row>
     <row r="88" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A88" s="2" t="s">
+      <c r="A88" t="s">
         <v>172</v>
       </c>
-      <c r="B88" s="2" t="s">
+      <c r="B88" t="s">
         <v>173</v>
       </c>
-      <c r="C88" s="2" t="str">
+      <c r="C88" t="str">
         <f>VLOOKUP(A88,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>GGY</v>
       </c>
-      <c r="D88" s="2" t="str">
+      <c r="D88" t="str">
         <f>VLOOKUP(A88,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Guernsey</v>
       </c>
     </row>
     <row r="89" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A89" s="2" t="s">
+      <c r="A89" t="s">
         <v>174</v>
       </c>
-      <c r="B89" s="2" t="s">
+      <c r="B89" t="s">
         <v>175</v>
       </c>
-      <c r="C89" s="2" t="str">
+      <c r="C89" t="str">
         <f>VLOOKUP(A89,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>GIN</v>
       </c>
-      <c r="D89" s="2" t="str">
+      <c r="D89" t="str">
         <f>VLOOKUP(A89,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Guinea</v>
       </c>
     </row>
     <row r="90" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A90" s="2" t="s">
+      <c r="A90" t="s">
         <v>176</v>
       </c>
-      <c r="B90" s="2" t="s">
+      <c r="B90" t="s">
         <v>177</v>
       </c>
-      <c r="C90" s="2" t="str">
+      <c r="C90" t="str">
         <f>VLOOKUP(A90,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>GNB</v>
       </c>
-      <c r="D90" s="2" t="str">
+      <c r="D90" t="str">
         <f>VLOOKUP(A90,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Guinea-Bissau</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A91" s="2" t="s">
+      <c r="A91" t="s">
         <v>178</v>
       </c>
-      <c r="B91" s="2" t="s">
+      <c r="B91" t="s">
         <v>179</v>
       </c>
-      <c r="C91" s="2" t="str">
+      <c r="C91" t="str">
         <f>VLOOKUP(A91,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>GUY</v>
       </c>
-      <c r="D91" s="2" t="str">
+      <c r="D91" t="str">
         <f>VLOOKUP(A91,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Guyana</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A92" s="2" t="s">
+      <c r="A92" t="s">
         <v>180</v>
       </c>
-      <c r="B92" s="2" t="s">
+      <c r="B92" t="s">
         <v>181</v>
       </c>
-      <c r="C92" s="2" t="str">
+      <c r="C92" t="str">
         <f>VLOOKUP(A92,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>HTI</v>
       </c>
-      <c r="D92" s="2" t="str">
+      <c r="D92" t="str">
         <f>VLOOKUP(A92,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Haiti</v>
       </c>
     </row>
     <row r="93" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A93" s="2" t="s">
+      <c r="A93" t="s">
         <v>182</v>
       </c>
-      <c r="B93" s="2" t="s">
+      <c r="B93" t="s">
         <v>183</v>
       </c>
-      <c r="C93" s="2" t="str">
+      <c r="C93" t="str">
         <f>VLOOKUP(A93,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>HND</v>
       </c>
-      <c r="D93" s="2" t="str">
+      <c r="D93" t="str">
         <f>VLOOKUP(A93,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Honduras</v>
       </c>
     </row>
     <row r="94" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A94" s="2" t="s">
+      <c r="A94" t="s">
         <v>184</v>
       </c>
-      <c r="B94" s="2" t="s">
+      <c r="B94" t="s">
         <v>185</v>
       </c>
-      <c r="C94" s="2" t="str">
+      <c r="C94" t="str">
         <f>VLOOKUP(A94,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>HKG</v>
       </c>
-      <c r="D94" s="2" t="str">
+      <c r="D94" t="str">
         <f>VLOOKUP(A94,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Hong Kong, China</v>
       </c>
     </row>
     <row r="95" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A95" s="2" t="s">
+      <c r="A95" t="s">
         <v>186</v>
       </c>
-      <c r="B95" s="2" t="s">
+      <c r="B95" t="s">
         <v>187</v>
       </c>
-      <c r="C95" s="2" t="str">
+      <c r="C95" t="str">
         <f>VLOOKUP(A95,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>HUN</v>
       </c>
-      <c r="D95" s="2" t="str">
+      <c r="D95" t="str">
         <f>VLOOKUP(A95,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Hungary</v>
       </c>
     </row>
     <row r="96" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A96" s="2" t="s">
+      <c r="A96" t="s">
         <v>188</v>
       </c>
-      <c r="B96" s="2" t="s">
+      <c r="B96" t="s">
         <v>189</v>
       </c>
-      <c r="C96" s="2" t="str">
+      <c r="C96" t="str">
         <f>VLOOKUP(A96,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>ISL</v>
       </c>
-      <c r="D96" s="2" t="str">
+      <c r="D96" t="str">
         <f>VLOOKUP(A96,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Iceland</v>
       </c>
     </row>
     <row r="97" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A97" s="2" t="s">
+      <c r="A97" t="s">
         <v>190</v>
       </c>
-      <c r="B97" s="2" t="s">
+      <c r="B97" t="s">
         <v>191</v>
       </c>
-      <c r="C97" s="2" t="str">
+      <c r="C97" t="str">
         <f>VLOOKUP(A97,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>IND</v>
       </c>
-      <c r="D97" s="2" t="str">
+      <c r="D97" t="str">
         <f>VLOOKUP(A97,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>India</v>
       </c>
     </row>
     <row r="98" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A98" s="2" t="s">
+      <c r="A98" t="s">
         <v>192</v>
       </c>
-      <c r="B98" s="2" t="s">
+      <c r="B98" t="s">
         <v>193</v>
       </c>
-      <c r="C98" s="2" t="str">
+      <c r="C98" t="str">
         <f>VLOOKUP(A98,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>IDN</v>
       </c>
-      <c r="D98" s="2" t="str">
+      <c r="D98" t="str">
         <f>VLOOKUP(A98,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Indonesia</v>
       </c>
     </row>
     <row r="99" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A99" s="2" t="s">
+      <c r="A99" t="s">
         <v>194</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" t="s">
         <v>195</v>
       </c>
-      <c r="C99" s="2" t="str">
+      <c r="C99" t="str">
         <f>VLOOKUP(A99,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>IRN</v>
       </c>
-      <c r="D99" s="2" t="str">
+      <c r="D99" t="str">
         <f>VLOOKUP(A99,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Iran, Islamic Rep.</v>
       </c>
     </row>
     <row r="100" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A100" s="2" t="s">
+      <c r="A100" t="s">
         <v>196</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" t="s">
         <v>197</v>
       </c>
-      <c r="C100" s="2" t="str">
+      <c r="C100" t="str">
         <f>VLOOKUP(A100,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>IRQ</v>
       </c>
-      <c r="D100" s="2" t="str">
+      <c r="D100" t="str">
         <f>VLOOKUP(A100,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Iraq</v>
       </c>
     </row>
     <row r="101" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A101" s="2" t="s">
+      <c r="A101" t="s">
         <v>198</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" t="s">
         <v>199</v>
       </c>
-      <c r="C101" s="2" t="str">
+      <c r="C101" t="str">
         <f>VLOOKUP(A101,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>IRL</v>
       </c>
-      <c r="D101" s="2" t="str">
+      <c r="D101" t="str">
         <f>VLOOKUP(A101,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Ireland</v>
       </c>
     </row>
     <row r="102" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A102" s="2" t="s">
+      <c r="A102" t="s">
         <v>200</v>
       </c>
-      <c r="B102" s="2" t="s">
+      <c r="B102" t="s">
         <v>201</v>
       </c>
-      <c r="C102" s="2" t="str">
+      <c r="C102" t="str">
         <f>VLOOKUP(A102,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>IMN</v>
       </c>
-      <c r="D102" s="2" t="str">
+      <c r="D102" t="str">
         <f>VLOOKUP(A102,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Isle of Man</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A103" s="2" t="s">
+      <c r="A103" t="s">
         <v>202</v>
       </c>
-      <c r="B103" s="2" t="s">
+      <c r="B103" t="s">
         <v>203</v>
       </c>
-      <c r="C103" s="2" t="str">
+      <c r="C103" t="str">
         <f>VLOOKUP(A103,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>ISR</v>
       </c>
-      <c r="D103" s="2" t="str">
+      <c r="D103" t="str">
         <f>VLOOKUP(A103,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Israel</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A104" s="2" t="s">
+      <c r="A104" t="s">
         <v>204</v>
       </c>
-      <c r="B104" s="2" t="s">
+      <c r="B104" t="s">
         <v>205</v>
       </c>
-      <c r="C104" s="2" t="str">
+      <c r="C104" t="str">
         <f>VLOOKUP(A104,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>ITA</v>
       </c>
-      <c r="D104" s="2" t="str">
+      <c r="D104" t="str">
         <f>VLOOKUP(A104,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Italy</v>
       </c>
     </row>
     <row r="105" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A105" s="2" t="s">
+      <c r="A105" t="s">
         <v>206</v>
       </c>
-      <c r="B105" s="2" t="s">
+      <c r="B105" t="s">
         <v>207</v>
       </c>
-      <c r="C105" s="2" t="str">
+      <c r="C105" t="str">
         <f>VLOOKUP(A105,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>JAM</v>
       </c>
-      <c r="D105" s="2" t="str">
+      <c r="D105" t="str">
         <f>VLOOKUP(A105,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Jamaica</v>
       </c>
     </row>
     <row r="106" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A106" s="2" t="s">
+      <c r="A106" t="s">
         <v>208</v>
       </c>
-      <c r="B106" s="2" t="s">
+      <c r="B106" t="s">
         <v>209</v>
       </c>
-      <c r="C106" s="2" t="str">
+      <c r="C106" t="str">
         <f>VLOOKUP(A106,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>JPN</v>
       </c>
-      <c r="D106" s="2" t="str">
+      <c r="D106" t="str">
         <f>VLOOKUP(A106,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Japan</v>
       </c>
     </row>
     <row r="107" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A107" s="2" t="s">
+      <c r="A107" t="s">
         <v>210</v>
       </c>
-      <c r="B107" s="2" t="s">
+      <c r="B107" t="s">
         <v>211</v>
       </c>
-      <c r="C107" s="2" t="str">
+      <c r="C107" t="str">
         <f>VLOOKUP(A107,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>JEY</v>
       </c>
-      <c r="D107" s="2" t="str">
+      <c r="D107" t="str">
         <f>VLOOKUP(A107,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Jersey</v>
       </c>
     </row>
     <row r="108" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A108" s="2" t="s">
+      <c r="A108" t="s">
         <v>212</v>
       </c>
-      <c r="B108" s="2" t="s">
+      <c r="B108" t="s">
         <v>213</v>
       </c>
-      <c r="C108" s="2" t="str">
+      <c r="C108" t="str">
         <f>VLOOKUP(A108,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>JOR</v>
       </c>
-      <c r="D108" s="2" t="str">
+      <c r="D108" t="str">
         <f>VLOOKUP(A108,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Jordan</v>
       </c>
     </row>
     <row r="109" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A109" s="2" t="s">
+      <c r="A109" t="s">
         <v>214</v>
       </c>
-      <c r="B109" s="2" t="s">
+      <c r="B109" t="s">
         <v>215</v>
       </c>
-      <c r="C109" s="2" t="str">
+      <c r="C109" t="str">
         <f>VLOOKUP(A109,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>KAZ</v>
       </c>
-      <c r="D109" s="2" t="str">
+      <c r="D109" t="str">
         <f>VLOOKUP(A109,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Kazakhstan</v>
       </c>
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A110" s="2" t="s">
+      <c r="A110" t="s">
         <v>216</v>
       </c>
-      <c r="B110" s="2" t="s">
+      <c r="B110" t="s">
         <v>217</v>
       </c>
-      <c r="C110" s="2" t="str">
+      <c r="C110" t="str">
         <f>VLOOKUP(A110,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>KEN</v>
       </c>
-      <c r="D110" s="2" t="str">
+      <c r="D110" t="str">
         <f>VLOOKUP(A110,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Kenya</v>
       </c>
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A111" s="2" t="s">
+      <c r="A111" t="s">
         <v>218</v>
       </c>
-      <c r="B111" s="2" t="s">
+      <c r="B111" t="s">
         <v>219</v>
       </c>
-      <c r="C111" s="2" t="str">
+      <c r="C111" t="str">
         <f>VLOOKUP(A111,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>KIR</v>
       </c>
-      <c r="D111" s="2" t="str">
+      <c r="D111" t="str">
         <f>VLOOKUP(A111,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Kiribati</v>
       </c>
     </row>
     <row r="112" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A112" s="2" t="s">
+      <c r="A112" t="s">
         <v>220</v>
       </c>
-      <c r="B112" s="2" t="s">
+      <c r="B112" t="s">
         <v>221</v>
       </c>
-      <c r="C112" s="2" t="str">
+      <c r="C112" t="str">
         <f>VLOOKUP(A112,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>PRK</v>
       </c>
-      <c r="D112" s="2" t="str">
+      <c r="D112" t="str">
         <f>VLOOKUP(A112,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Korea, Dem. Rep.</v>
       </c>
@@ -4085,1955 +4194,2103 @@
       </c>
     </row>
     <row r="114" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A114" s="2" t="s">
+      <c r="A114" t="s">
         <v>224</v>
       </c>
-      <c r="B114" s="2" t="s">
+      <c r="B114" t="s">
         <v>225</v>
       </c>
-      <c r="C114" s="2" t="str">
+      <c r="C114" t="str">
         <f>VLOOKUP(A114,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>KWT</v>
       </c>
-      <c r="D114" s="2" t="str">
+      <c r="D114" t="str">
         <f>VLOOKUP(A114,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Kuwait</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A115" s="2" t="s">
+      <c r="A115" t="s">
         <v>226</v>
       </c>
-      <c r="B115" s="2" t="s">
+      <c r="B115" t="s">
         <v>227</v>
       </c>
-      <c r="C115" s="2" t="str">
+      <c r="C115" t="str">
         <f>VLOOKUP(A115,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>KGZ</v>
       </c>
-      <c r="D115" s="2" t="str">
+      <c r="D115" t="str">
         <f>VLOOKUP(A115,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Kyrgyz Republic</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A116" s="2" t="s">
+      <c r="A116" t="s">
         <v>228</v>
       </c>
-      <c r="B116" s="2" t="s">
+      <c r="B116" t="s">
         <v>229</v>
       </c>
-      <c r="C116" s="2" t="str">
+      <c r="C116" t="str">
         <f>VLOOKUP(A116,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>LAO</v>
       </c>
-      <c r="D116" s="2" t="str">
+      <c r="D116" t="str">
         <f>VLOOKUP(A116,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Lao PDR</v>
       </c>
     </row>
     <row r="117" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A117" s="2" t="s">
+      <c r="A117" t="s">
         <v>230</v>
       </c>
-      <c r="B117" s="2" t="s">
+      <c r="B117" t="s">
         <v>231</v>
       </c>
-      <c r="C117" s="2" t="str">
+      <c r="C117" t="str">
         <f>VLOOKUP(A117,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>LVA</v>
       </c>
-      <c r="D117" s="2" t="str">
+      <c r="D117" t="str">
         <f>VLOOKUP(A117,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Latvia</v>
       </c>
     </row>
     <row r="118" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A118" s="2" t="s">
+      <c r="A118" t="s">
         <v>232</v>
       </c>
-      <c r="B118" s="2" t="s">
+      <c r="B118" t="s">
         <v>233</v>
       </c>
-      <c r="C118" s="2" t="str">
+      <c r="C118" t="str">
         <f>VLOOKUP(A118,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>LBN</v>
       </c>
-      <c r="D118" s="2" t="str">
+      <c r="D118" t="str">
         <f>VLOOKUP(A118,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Lebanon</v>
       </c>
     </row>
     <row r="119" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A119" s="2" t="s">
+      <c r="A119" t="s">
         <v>234</v>
       </c>
-      <c r="B119" s="2" t="s">
+      <c r="B119" t="s">
         <v>235</v>
       </c>
-      <c r="C119" s="2" t="str">
+      <c r="C119" t="str">
         <f>VLOOKUP(A119,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>LSO</v>
       </c>
-      <c r="D119" s="2" t="str">
+      <c r="D119" t="str">
         <f>VLOOKUP(A119,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Lesotho</v>
       </c>
     </row>
     <row r="120" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A120" s="2" t="s">
+      <c r="A120" t="s">
         <v>236</v>
       </c>
-      <c r="B120" s="2" t="s">
+      <c r="B120" t="s">
         <v>237</v>
       </c>
-      <c r="C120" s="2" t="str">
+      <c r="C120" t="str">
         <f>VLOOKUP(A120,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>LBR</v>
       </c>
-      <c r="D120" s="2" t="str">
+      <c r="D120" t="str">
         <f>VLOOKUP(A120,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Liberia</v>
       </c>
     </row>
     <row r="121" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A121" s="2" t="s">
+      <c r="A121" t="s">
         <v>238</v>
       </c>
-      <c r="B121" s="2" t="s">
+      <c r="B121" t="s">
         <v>239</v>
       </c>
-      <c r="C121" s="2" t="str">
+      <c r="C121" t="str">
         <f>VLOOKUP(A121,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>LBY</v>
       </c>
-      <c r="D121" s="2" t="str">
+      <c r="D121" t="str">
         <f>VLOOKUP(A121,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Libya</v>
       </c>
     </row>
     <row r="122" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A122" s="2" t="s">
+      <c r="A122" t="s">
         <v>240</v>
       </c>
-      <c r="B122" s="2" t="s">
+      <c r="B122" t="s">
         <v>241</v>
       </c>
-      <c r="C122" s="2" t="str">
+      <c r="C122" t="str">
         <f>VLOOKUP(A122,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>LIE</v>
       </c>
-      <c r="D122" s="2" t="str">
+      <c r="D122" t="str">
         <f>VLOOKUP(A122,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Liechtenstein</v>
       </c>
     </row>
     <row r="123" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A123" s="2" t="s">
+      <c r="A123" t="s">
         <v>242</v>
       </c>
-      <c r="B123" s="2" t="s">
+      <c r="B123" t="s">
         <v>243</v>
       </c>
-      <c r="C123" s="2" t="str">
+      <c r="C123" t="str">
         <f>VLOOKUP(A123,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>LTU</v>
       </c>
-      <c r="D123" s="2" t="str">
+      <c r="D123" t="str">
         <f>VLOOKUP(A123,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Lithuania</v>
       </c>
     </row>
     <row r="124" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A124" s="2" t="s">
+      <c r="A124" t="s">
         <v>244</v>
       </c>
-      <c r="B124" s="2" t="s">
+      <c r="B124" t="s">
         <v>245</v>
       </c>
-      <c r="C124" s="2" t="str">
+      <c r="C124" t="str">
         <f>VLOOKUP(A124,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>LUX</v>
       </c>
-      <c r="D124" s="2" t="str">
+      <c r="D124" t="str">
         <f>VLOOKUP(A124,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Luxembourg</v>
       </c>
     </row>
     <row r="125" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A125" s="2" t="s">
+      <c r="A125" t="s">
         <v>246</v>
       </c>
-      <c r="B125" s="2" t="s">
+      <c r="B125" t="s">
         <v>247</v>
       </c>
-      <c r="C125" s="2" t="str">
+      <c r="C125" t="str">
         <f>VLOOKUP(A125,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>MAC</v>
       </c>
-      <c r="D125" s="2" t="str">
+      <c r="D125" t="str">
         <f>VLOOKUP(A125,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Macao</v>
       </c>
     </row>
     <row r="126" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A126" s="2" t="s">
+      <c r="A126" t="s">
         <v>248</v>
       </c>
-      <c r="B126" s="2" t="s">
+      <c r="B126" t="s">
         <v>249</v>
       </c>
-      <c r="C126" s="2" t="str">
+      <c r="C126" t="str">
         <f>VLOOKUP(A126,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>MDG</v>
       </c>
-      <c r="D126" s="2" t="str">
+      <c r="D126" t="str">
         <f>VLOOKUP(A126,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Madagascar</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A127" s="2" t="s">
+      <c r="A127" t="s">
         <v>250</v>
       </c>
-      <c r="B127" s="2" t="s">
+      <c r="B127" t="s">
         <v>251</v>
       </c>
-      <c r="C127" s="2" t="str">
+      <c r="C127" t="str">
         <f>VLOOKUP(A127,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>MWI</v>
       </c>
-      <c r="D127" s="2" t="str">
+      <c r="D127" t="str">
         <f>VLOOKUP(A127,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Malawi</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A128" s="2" t="s">
+      <c r="A128" t="s">
         <v>252</v>
       </c>
-      <c r="B128" s="2" t="s">
+      <c r="B128" t="s">
         <v>253</v>
       </c>
-      <c r="C128" s="2" t="str">
+      <c r="C128" t="str">
         <f>VLOOKUP(A128,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>MYS</v>
       </c>
-      <c r="D128" s="2" t="str">
+      <c r="D128" t="str">
         <f>VLOOKUP(A128,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Malaysia</v>
       </c>
     </row>
     <row r="129" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A129" s="2" t="s">
+      <c r="A129" t="s">
         <v>254</v>
       </c>
-      <c r="B129" s="2" t="s">
+      <c r="B129" t="s">
         <v>255</v>
       </c>
-      <c r="C129" s="2" t="str">
+      <c r="C129" t="str">
         <f>VLOOKUP(A129,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>MDV</v>
       </c>
-      <c r="D129" s="2" t="str">
+      <c r="D129" t="str">
         <f>VLOOKUP(A129,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Maldives</v>
       </c>
     </row>
     <row r="130" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A130" s="2" t="s">
+      <c r="A130" t="s">
         <v>256</v>
       </c>
-      <c r="B130" s="2" t="s">
+      <c r="B130" t="s">
         <v>257</v>
       </c>
-      <c r="C130" s="2" t="str">
+      <c r="C130" t="str">
         <f>VLOOKUP(A130,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>MLI</v>
       </c>
-      <c r="D130" s="2" t="str">
+      <c r="D130" t="str">
         <f>VLOOKUP(A130,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Mali</v>
       </c>
     </row>
     <row r="131" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A131" s="2" t="s">
+      <c r="A131" t="s">
         <v>258</v>
       </c>
-      <c r="B131" s="2" t="s">
+      <c r="B131" t="s">
         <v>259</v>
       </c>
-      <c r="C131" s="2" t="str">
+      <c r="C131" t="str">
         <f>VLOOKUP(A131,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>MLT</v>
       </c>
-      <c r="D131" s="2" t="str">
+      <c r="D131" t="str">
         <f>VLOOKUP(A131,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Malta</v>
       </c>
     </row>
     <row r="132" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A132" s="2" t="s">
+      <c r="A132" t="s">
         <v>260</v>
       </c>
-      <c r="B132" s="2" t="s">
+      <c r="B132" t="s">
         <v>261</v>
       </c>
-      <c r="C132" s="2" t="str">
+      <c r="C132" t="str">
         <f>VLOOKUP(A132,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>MHL</v>
       </c>
-      <c r="D132" s="2" t="str">
+      <c r="D132" t="str">
         <f>VLOOKUP(A132,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Marshall Islands</v>
       </c>
     </row>
     <row r="133" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A133" s="2" t="s">
+      <c r="A133" t="s">
         <v>262</v>
       </c>
-      <c r="B133" s="2" t="s">
+      <c r="B133" t="s">
         <v>263</v>
       </c>
-      <c r="C133" s="2" t="str">
+      <c r="C133" t="str">
         <f>VLOOKUP(A133,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>MTQ</v>
       </c>
-      <c r="D133" s="2" t="str">
+      <c r="D133" t="str">
         <f>VLOOKUP(A133,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Martinique</v>
       </c>
     </row>
     <row r="134" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A134" s="2" t="s">
+      <c r="A134" t="s">
         <v>264</v>
       </c>
-      <c r="B134" s="2" t="s">
+      <c r="B134" t="s">
         <v>265</v>
       </c>
-      <c r="C134" s="2" t="str">
+      <c r="C134" t="str">
         <f>VLOOKUP(A134,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>MRT</v>
       </c>
-      <c r="D134" s="2" t="str">
+      <c r="D134" t="str">
         <f>VLOOKUP(A134,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Mauritania</v>
       </c>
     </row>
     <row r="135" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A135" s="2" t="s">
+      <c r="A135" t="s">
         <v>266</v>
       </c>
-      <c r="B135" s="2" t="s">
+      <c r="B135" t="s">
         <v>267</v>
       </c>
-      <c r="C135" s="2" t="str">
+      <c r="C135" t="str">
         <f>VLOOKUP(A135,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>MUS</v>
       </c>
-      <c r="D135" s="2" t="str">
+      <c r="D135" t="str">
         <f>VLOOKUP(A135,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Mauritius</v>
       </c>
     </row>
     <row r="136" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A136" s="2" t="s">
+      <c r="A136" t="s">
         <v>268</v>
       </c>
-      <c r="B136" s="2" t="s">
+      <c r="B136" t="s">
         <v>269</v>
       </c>
-      <c r="C136" s="2" t="str">
+      <c r="C136" t="str">
         <f>VLOOKUP(A136,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>MEX</v>
       </c>
-      <c r="D136" s="2" t="str">
+      <c r="D136" t="str">
         <f>VLOOKUP(A136,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Mexico</v>
       </c>
     </row>
     <row r="137" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A137" s="2" t="s">
+      <c r="A137" t="s">
         <v>270</v>
       </c>
-      <c r="B137" s="2" t="s">
+      <c r="B137" t="s">
         <v>271</v>
       </c>
-      <c r="C137" s="2" t="str">
+      <c r="C137" t="str">
         <f>VLOOKUP(A137,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>FSM</v>
       </c>
-      <c r="D137" s="2" t="str">
+      <c r="D137" t="str">
         <f>VLOOKUP(A137,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Micronesia, Fed. Sts.</v>
       </c>
     </row>
     <row r="138" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A138" s="2" t="s">
+      <c r="A138" t="s">
         <v>272</v>
       </c>
-      <c r="B138" s="2" t="s">
+      <c r="B138" t="s">
         <v>273</v>
       </c>
-      <c r="C138" s="2" t="str">
+      <c r="C138" t="str">
         <f>VLOOKUP(A138,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>MCO</v>
       </c>
-      <c r="D138" s="2" t="str">
+      <c r="D138" t="str">
         <f>VLOOKUP(A138,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Monaco</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A139" s="2" t="s">
+      <c r="A139" t="s">
         <v>274</v>
       </c>
-      <c r="B139" s="2" t="s">
+      <c r="B139" t="s">
         <v>275</v>
       </c>
-      <c r="C139" s="2" t="str">
+      <c r="C139" t="str">
         <f>VLOOKUP(A139,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>MNG</v>
       </c>
-      <c r="D139" s="2" t="str">
+      <c r="D139" t="str">
         <f>VLOOKUP(A139,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Mongolia</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A140" s="2" t="s">
+      <c r="A140" t="s">
         <v>276</v>
       </c>
-      <c r="B140" s="2" t="s">
+      <c r="B140" t="s">
         <v>277</v>
       </c>
-      <c r="C140" s="2" t="str">
+      <c r="C140" t="str">
         <f>VLOOKUP(A140,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>MNE</v>
       </c>
-      <c r="D140" s="2" t="str">
+      <c r="D140" t="str">
         <f>VLOOKUP(A140,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Montenegro</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A141" s="2" t="s">
+      <c r="A141" t="s">
         <v>278</v>
       </c>
-      <c r="B141" s="2" t="s">
+      <c r="B141" t="s">
         <v>279</v>
       </c>
-      <c r="C141" s="2" t="str">
+      <c r="C141" t="str">
         <f>VLOOKUP(A141,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>MSR</v>
       </c>
-      <c r="D141" s="2" t="str">
+      <c r="D141" t="str">
         <f>VLOOKUP(A141,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Montserrat</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A142" s="2" t="s">
+      <c r="A142" t="s">
         <v>280</v>
       </c>
-      <c r="B142" s="2" t="s">
+      <c r="B142" t="s">
         <v>281</v>
       </c>
-      <c r="C142" s="2" t="str">
+      <c r="C142" t="str">
         <f>VLOOKUP(A142,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>MAR</v>
       </c>
-      <c r="D142" s="2" t="str">
+      <c r="D142" t="str">
         <f>VLOOKUP(A142,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Morocco</v>
       </c>
     </row>
     <row r="143" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A143" s="2" t="s">
+      <c r="A143" t="s">
         <v>282</v>
       </c>
-      <c r="B143" s="2" t="s">
+      <c r="B143" t="s">
         <v>283</v>
       </c>
-      <c r="C143" s="2" t="str">
+      <c r="C143" t="str">
         <f>VLOOKUP(A143,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>MOZ</v>
       </c>
-      <c r="D143" s="2" t="str">
+      <c r="D143" t="str">
         <f>VLOOKUP(A143,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Mozambique</v>
       </c>
     </row>
     <row r="144" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A144" s="2" t="s">
+      <c r="A144" t="s">
         <v>284</v>
       </c>
-      <c r="B144" s="2" t="s">
+      <c r="B144" t="s">
         <v>285</v>
       </c>
-      <c r="C144" s="2" t="str">
+      <c r="C144" t="str">
         <f>VLOOKUP(A144,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>MMR</v>
       </c>
-      <c r="D144" s="2" t="str">
+      <c r="D144" t="str">
         <f>VLOOKUP(A144,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Myanmar</v>
       </c>
     </row>
     <row r="145" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A145" s="2" t="s">
+      <c r="A145" t="s">
         <v>286</v>
       </c>
-      <c r="B145" s="2" t="s">
+      <c r="B145" t="s">
         <v>287</v>
       </c>
-      <c r="C145" s="2" t="str">
+      <c r="C145" t="str">
         <f>VLOOKUP(A145,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>NAM</v>
       </c>
-      <c r="D145" s="2" t="str">
+      <c r="D145" t="str">
         <f>VLOOKUP(A145,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Namibia</v>
       </c>
     </row>
     <row r="146" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A146" s="2" t="s">
+      <c r="A146" t="s">
         <v>288</v>
       </c>
-      <c r="B146" s="2" t="s">
+      <c r="B146" t="s">
         <v>289</v>
       </c>
-      <c r="C146" s="2" t="str">
+      <c r="C146" t="str">
         <f>VLOOKUP(A146,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>NRU</v>
       </c>
-      <c r="D146" s="2" t="str">
+      <c r="D146" t="str">
         <f>VLOOKUP(A146,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Nauru</v>
       </c>
     </row>
     <row r="147" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A147" s="2" t="s">
+      <c r="A147" t="s">
         <v>290</v>
       </c>
-      <c r="B147" s="2" t="s">
+      <c r="B147" t="s">
         <v>291</v>
       </c>
-      <c r="C147" s="2" t="str">
+      <c r="C147" t="str">
         <f>VLOOKUP(A147,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>NPL</v>
       </c>
-      <c r="D147" s="2" t="str">
+      <c r="D147" t="str">
         <f>VLOOKUP(A147,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Nepal</v>
       </c>
     </row>
     <row r="148" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A148" s="2" t="s">
+      <c r="A148" t="s">
         <v>292</v>
       </c>
-      <c r="B148" s="2" t="s">
+      <c r="B148" t="s">
         <v>293</v>
       </c>
-      <c r="C148" s="2" t="str">
+      <c r="C148" t="str">
         <f>VLOOKUP(A148,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>NLD</v>
       </c>
-      <c r="D148" s="2" t="str">
+      <c r="D148" t="str">
         <f>VLOOKUP(A148,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Netherlands</v>
       </c>
     </row>
     <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
+      <c r="A149" t="s">
         <v>294</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B149" t="s">
         <v>295</v>
       </c>
-      <c r="C149" s="2" t="str">
+      <c r="C149" t="str">
         <f>VLOOKUP(A149,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>ANT</v>
       </c>
-      <c r="D149" s="2" t="str">
+      <c r="D149" t="str">
         <f>VLOOKUP(A149,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Netherlands Antilles</v>
       </c>
     </row>
     <row r="150" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
+      <c r="A150" t="s">
         <v>296</v>
       </c>
-      <c r="B150" s="2" t="s">
+      <c r="B150" t="s">
         <v>297</v>
       </c>
-      <c r="C150" s="2" t="str">
+      <c r="C150" t="str">
         <f>VLOOKUP(A150,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>NCL</v>
       </c>
-      <c r="D150" s="2" t="str">
+      <c r="D150" t="str">
         <f>VLOOKUP(A150,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>New Caledonia</v>
       </c>
     </row>
     <row r="151" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
+      <c r="A151" t="s">
         <v>298</v>
       </c>
-      <c r="B151" s="2" t="s">
+      <c r="B151" t="s">
         <v>299</v>
       </c>
-      <c r="C151" s="2" t="str">
+      <c r="C151" t="str">
         <f>VLOOKUP(A151,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>NZL</v>
       </c>
-      <c r="D151" s="2" t="str">
+      <c r="D151" t="str">
         <f>VLOOKUP(A151,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>New Zealand</v>
       </c>
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
+      <c r="A152" t="s">
         <v>300</v>
       </c>
-      <c r="B152" s="2" t="s">
+      <c r="B152" t="s">
         <v>301</v>
       </c>
-      <c r="C152" s="2" t="str">
+      <c r="C152" t="str">
         <f>VLOOKUP(A152,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>NIC</v>
       </c>
-      <c r="D152" s="2" t="str">
+      <c r="D152" t="str">
         <f>VLOOKUP(A152,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Nicaragua</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
+      <c r="A153" t="s">
         <v>302</v>
       </c>
-      <c r="B153" s="2" t="s">
+      <c r="B153" t="s">
         <v>303</v>
       </c>
-      <c r="C153" s="2" t="str">
+      <c r="C153" t="str">
         <f>VLOOKUP(A153,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>NER</v>
       </c>
-      <c r="D153" s="2" t="str">
+      <c r="D153" t="str">
         <f>VLOOKUP(A153,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Niger</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
+      <c r="A154" t="s">
         <v>304</v>
       </c>
-      <c r="B154" s="2" t="s">
+      <c r="B154" t="s">
         <v>305</v>
       </c>
-      <c r="C154" s="2" t="str">
+      <c r="C154" t="str">
         <f>VLOOKUP(A154,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>NGA</v>
       </c>
-      <c r="D154" s="2" t="str">
+      <c r="D154" t="str">
         <f>VLOOKUP(A154,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Nigeria</v>
       </c>
     </row>
     <row r="155" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
+      <c r="A155" t="s">
         <v>306</v>
       </c>
-      <c r="B155" s="2" t="s">
+      <c r="B155" t="s">
         <v>307</v>
       </c>
-      <c r="C155" s="2" t="str">
+      <c r="C155" t="str">
         <f>VLOOKUP(A155,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>NIU</v>
       </c>
-      <c r="D155" s="2" t="str">
+      <c r="D155" t="str">
         <f>VLOOKUP(A155,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Niue</v>
       </c>
     </row>
     <row r="156" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
+      <c r="A156" t="s">
         <v>308</v>
       </c>
-      <c r="B156" s="2" t="s">
+      <c r="B156" t="s">
         <v>309</v>
       </c>
-      <c r="C156" s="2" t="str">
+      <c r="C156" t="str">
         <f>VLOOKUP(A156,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>NFK</v>
       </c>
-      <c r="D156" s="2" t="str">
+      <c r="D156" t="str">
         <f>VLOOKUP(A156,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Norfolk Island</v>
       </c>
     </row>
     <row r="157" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
+      <c r="A157" t="s">
         <v>310</v>
       </c>
-      <c r="B157" s="2" t="s">
+      <c r="B157" t="s">
         <v>311</v>
       </c>
-      <c r="C157" s="2" t="str">
+      <c r="C157" t="str">
         <f>VLOOKUP(A157,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>MKD</v>
       </c>
-      <c r="D157" s="2" t="str">
+      <c r="D157" t="str">
         <f>VLOOKUP(A157,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Macedonia, FYR</v>
       </c>
     </row>
     <row r="158" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A158" s="2" t="s">
+      <c r="A158" t="s">
         <v>312</v>
       </c>
-      <c r="B158" s="2" t="s">
+      <c r="B158" t="s">
         <v>313</v>
       </c>
-      <c r="C158" s="2" t="str">
+      <c r="C158" t="str">
         <f>VLOOKUP(A158,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>MNP</v>
       </c>
-      <c r="D158" s="2" t="str">
+      <c r="D158" t="str">
         <f>VLOOKUP(A158,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Northern Mariana Islands</v>
       </c>
     </row>
     <row r="159" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A159" s="2" t="s">
+      <c r="A159" t="s">
         <v>314</v>
       </c>
-      <c r="B159" s="2" t="s">
+      <c r="B159" t="s">
         <v>315</v>
       </c>
-      <c r="C159" s="2" t="str">
+      <c r="C159" t="str">
         <f>VLOOKUP(A159,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>NOR</v>
       </c>
-      <c r="D159" s="2" t="str">
+      <c r="D159" t="str">
         <f>VLOOKUP(A159,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Norway</v>
       </c>
     </row>
     <row r="160" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A160" s="2" t="s">
+      <c r="A160" t="s">
         <v>316</v>
       </c>
-      <c r="B160" s="2" t="s">
+      <c r="B160" t="s">
         <v>317</v>
       </c>
-      <c r="C160" s="2" t="str">
+      <c r="C160" t="str">
         <f>VLOOKUP(A160,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>PSE</v>
       </c>
-      <c r="D160" s="2" t="str">
+      <c r="D160" t="str">
         <f>VLOOKUP(A160,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>State of Palestine</v>
       </c>
     </row>
     <row r="161" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A161" s="2" t="s">
+      <c r="A161" t="s">
         <v>318</v>
       </c>
-      <c r="B161" s="2" t="s">
+      <c r="B161" t="s">
         <v>319</v>
       </c>
-      <c r="C161" s="2" t="str">
+      <c r="C161" t="str">
         <f>VLOOKUP(A161,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>OMN</v>
       </c>
-      <c r="D161" s="2" t="str">
+      <c r="D161" t="str">
         <f>VLOOKUP(A161,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Oman</v>
       </c>
     </row>
     <row r="162" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A162" s="2" t="s">
+      <c r="A162" t="s">
         <v>320</v>
       </c>
-      <c r="B162" s="2" t="s">
+      <c r="B162" t="s">
         <v>321</v>
       </c>
-      <c r="C162" s="2" t="str">
+      <c r="C162" t="str">
         <f>VLOOKUP(A162,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>PAK</v>
       </c>
-      <c r="D162" s="2" t="str">
+      <c r="D162" t="str">
         <f>VLOOKUP(A162,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Pakistan</v>
       </c>
     </row>
     <row r="163" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A163" s="2" t="s">
+      <c r="A163" t="s">
         <v>322</v>
       </c>
-      <c r="B163" s="2" t="s">
+      <c r="B163" t="s">
         <v>323</v>
       </c>
-      <c r="C163" s="2" t="str">
+      <c r="C163" t="str">
         <f>VLOOKUP(A163,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>PLW</v>
       </c>
-      <c r="D163" s="2" t="str">
+      <c r="D163" t="str">
         <f>VLOOKUP(A163,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Palau</v>
       </c>
     </row>
     <row r="164" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A164" s="2" t="s">
+      <c r="A164" t="s">
         <v>324</v>
       </c>
-      <c r="B164" s="2" t="s">
+      <c r="B164" t="s">
         <v>325</v>
       </c>
-      <c r="C164" s="2" t="str">
+      <c r="C164" t="str">
         <f>VLOOKUP(A164,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>PAN</v>
       </c>
-      <c r="D164" s="2" t="str">
+      <c r="D164" t="str">
         <f>VLOOKUP(A164,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Panama</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A165" s="2" t="s">
+      <c r="A165" t="s">
         <v>326</v>
       </c>
-      <c r="B165" s="2" t="s">
+      <c r="B165" t="s">
         <v>327</v>
       </c>
-      <c r="C165" s="2" t="str">
+      <c r="C165" t="str">
         <f>VLOOKUP(A165,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>PNG</v>
       </c>
-      <c r="D165" s="2" t="str">
+      <c r="D165" t="str">
         <f>VLOOKUP(A165,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Papua New Guinea</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A166" s="2" t="s">
+      <c r="A166" t="s">
         <v>328</v>
       </c>
-      <c r="B166" s="2" t="s">
+      <c r="B166" t="s">
         <v>329</v>
       </c>
-      <c r="C166" s="2" t="str">
+      <c r="C166" t="str">
         <f>VLOOKUP(A166,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>PRY</v>
       </c>
-      <c r="D166" s="2" t="str">
+      <c r="D166" t="str">
         <f>VLOOKUP(A166,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Paraguay</v>
       </c>
     </row>
     <row r="167" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A167" s="2" t="s">
+      <c r="A167" t="s">
         <v>330</v>
       </c>
-      <c r="B167" s="2" t="s">
+      <c r="B167" t="s">
         <v>331</v>
       </c>
-      <c r="C167" s="2" t="str">
+      <c r="C167" t="str">
         <f>VLOOKUP(A167,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>PER</v>
       </c>
-      <c r="D167" s="2" t="str">
+      <c r="D167" t="str">
         <f>VLOOKUP(A167,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Peru</v>
       </c>
     </row>
     <row r="168" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A168" s="2" t="s">
+      <c r="A168" t="s">
         <v>332</v>
       </c>
-      <c r="B168" s="2" t="s">
+      <c r="B168" t="s">
         <v>333</v>
       </c>
-      <c r="C168" s="2" t="str">
+      <c r="C168" t="str">
         <f>VLOOKUP(A168,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>PHL</v>
       </c>
-      <c r="D168" s="2" t="str">
+      <c r="D168" t="str">
         <f>VLOOKUP(A168,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Philippines</v>
       </c>
     </row>
     <row r="169" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A169" s="2" t="s">
+      <c r="A169" t="s">
         <v>334</v>
       </c>
-      <c r="B169" s="2" t="s">
+      <c r="B169" t="s">
         <v>335</v>
       </c>
-      <c r="C169" s="2" t="str">
+      <c r="C169" t="str">
         <f>VLOOKUP(A169,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>POL</v>
       </c>
-      <c r="D169" s="2" t="str">
+      <c r="D169" t="str">
         <f>VLOOKUP(A169,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Poland</v>
       </c>
     </row>
     <row r="170" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A170" s="2" t="s">
+      <c r="A170" t="s">
         <v>336</v>
       </c>
-      <c r="B170" s="2" t="s">
+      <c r="B170" t="s">
         <v>337</v>
       </c>
-      <c r="C170" s="2" t="str">
+      <c r="C170" t="str">
         <f>VLOOKUP(A170,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>PRT</v>
       </c>
-      <c r="D170" s="2" t="str">
+      <c r="D170" t="str">
         <f>VLOOKUP(A170,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Portugal</v>
       </c>
     </row>
     <row r="171" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A171" s="2" t="s">
+      <c r="A171" t="s">
         <v>338</v>
       </c>
-      <c r="B171" s="2" t="s">
+      <c r="B171" t="s">
         <v>339</v>
       </c>
-      <c r="C171" s="2" t="str">
+      <c r="C171" t="str">
         <f>VLOOKUP(A171,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>PRI</v>
       </c>
-      <c r="D171" s="2" t="str">
+      <c r="D171" t="str">
         <f>VLOOKUP(A171,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Puerto Rico</v>
       </c>
     </row>
     <row r="172" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A172" s="2" t="s">
+      <c r="A172" t="s">
         <v>340</v>
       </c>
-      <c r="B172" s="2" t="s">
+      <c r="B172" t="s">
         <v>341</v>
       </c>
-      <c r="C172" s="2" t="str">
+      <c r="C172" t="str">
         <f>VLOOKUP(A172,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>QAT</v>
       </c>
-      <c r="D172" s="2" t="str">
+      <c r="D172" t="str">
         <f>VLOOKUP(A172,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Qatar</v>
       </c>
     </row>
     <row r="173" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
+      <c r="A173" t="s">
         <v>342</v>
       </c>
-      <c r="B173" s="2" t="s">
+      <c r="B173" t="s">
         <v>343</v>
       </c>
-      <c r="C173" s="2" t="str">
+      <c r="C173" t="str">
         <f>VLOOKUP(A173,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>KOR</v>
       </c>
-      <c r="D173" s="2" t="str">
+      <c r="D173" t="str">
         <f>VLOOKUP(A173,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Korea, Rep.</v>
       </c>
     </row>
     <row r="174" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
+      <c r="A174" t="s">
         <v>344</v>
       </c>
-      <c r="B174" s="2" t="s">
+      <c r="B174" t="s">
         <v>345</v>
       </c>
-      <c r="C174" s="2" t="str">
+      <c r="C174" t="str">
         <f>VLOOKUP(A174,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>MDA</v>
       </c>
-      <c r="D174" s="2" t="str">
+      <c r="D174" t="str">
         <f>VLOOKUP(A174,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Moldova</v>
       </c>
     </row>
     <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
+      <c r="A175" t="s">
         <v>346</v>
       </c>
-      <c r="B175" s="2" t="s">
+      <c r="B175" t="s">
         <v>347</v>
       </c>
-      <c r="C175" s="2" t="str">
+      <c r="C175" t="str">
         <f>VLOOKUP(A175,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>REU</v>
       </c>
-      <c r="D175" s="2" t="str">
+      <c r="D175" t="str">
         <f>VLOOKUP(A175,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Reunion</v>
       </c>
     </row>
     <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
+      <c r="A176" t="s">
         <v>348</v>
       </c>
-      <c r="B176" s="2" t="s">
+      <c r="B176" t="s">
         <v>349</v>
       </c>
-      <c r="C176" s="2" t="str">
+      <c r="C176" t="str">
         <f>VLOOKUP(A176,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>ROU</v>
       </c>
-      <c r="D176" s="2" t="str">
+      <c r="D176" t="str">
         <f>VLOOKUP(A176,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Romania</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
+      <c r="A177" t="s">
         <v>350</v>
       </c>
-      <c r="B177" s="2" t="s">
+      <c r="B177" t="s">
         <v>351</v>
       </c>
-      <c r="C177" s="2" t="str">
+      <c r="C177" t="str">
         <f>VLOOKUP(A177,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>RUS</v>
       </c>
-      <c r="D177" s="2" t="str">
+      <c r="D177" t="str">
         <f>VLOOKUP(A177,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Russian Federation</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A178" s="2" t="s">
+      <c r="A178" t="s">
         <v>352</v>
       </c>
-      <c r="B178" s="2" t="s">
+      <c r="B178" t="s">
         <v>353</v>
       </c>
-      <c r="C178" s="2" t="str">
+      <c r="C178" t="str">
         <f>VLOOKUP(A178,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>RWA</v>
       </c>
-      <c r="D178" s="2" t="str">
+      <c r="D178" t="str">
         <f>VLOOKUP(A178,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Rwanda</v>
       </c>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A179" s="2" t="s">
+      <c r="A179" t="s">
         <v>354</v>
       </c>
-      <c r="B179" s="2" t="s">
+      <c r="B179" t="s">
         <v>355</v>
       </c>
-      <c r="C179" s="2" t="str">
+      <c r="C179" t="str">
         <f>VLOOKUP(A179,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>SHN</v>
       </c>
-      <c r="D179" s="2" t="str">
+      <c r="D179" t="str">
         <f>VLOOKUP(A179,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Saint Helena</v>
       </c>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A180" s="2" t="s">
+      <c r="A180" t="s">
         <v>356</v>
       </c>
-      <c r="B180" s="2" t="s">
+      <c r="B180" t="s">
         <v>357</v>
       </c>
-      <c r="C180" s="2" t="str">
+      <c r="C180" t="str">
         <f>VLOOKUP(A180,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>KNA</v>
       </c>
-      <c r="D180" s="2" t="str">
+      <c r="D180" t="str">
         <f>VLOOKUP(A180,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>St. Kitts and Nevis</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A181" s="2" t="s">
+      <c r="A181" t="s">
         <v>358</v>
       </c>
-      <c r="B181" s="2" t="s">
+      <c r="B181" t="s">
         <v>359</v>
       </c>
-      <c r="C181" s="2" t="str">
+      <c r="C181" t="str">
         <f>VLOOKUP(A181,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>LCA</v>
       </c>
-      <c r="D181" s="2" t="str">
+      <c r="D181" t="str">
         <f>VLOOKUP(A181,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>St. Lucia</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A182" s="2" t="s">
+      <c r="A182" t="s">
         <v>360</v>
       </c>
-      <c r="B182" s="2" t="s">
+      <c r="B182" t="s">
         <v>361</v>
       </c>
-      <c r="C182" s="2" t="str">
+      <c r="C182" t="str">
         <f>VLOOKUP(A182,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>SPM</v>
       </c>
-      <c r="D182" s="2" t="str">
+      <c r="D182" t="str">
         <f>VLOOKUP(A182,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Saint Pierre and Miquelon</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A183" s="2" t="s">
+      <c r="A183" t="s">
         <v>362</v>
       </c>
-      <c r="B183" s="2" t="s">
+      <c r="B183" t="s">
         <v>363</v>
       </c>
-      <c r="C183" s="2" t="str">
+      <c r="C183" t="str">
         <f>VLOOKUP(A183,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>VCT</v>
       </c>
-      <c r="D183" s="2" t="str">
+      <c r="D183" t="str">
         <f>VLOOKUP(A183,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>St. Vincent and the Grenadines</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A184" s="2" t="s">
+      <c r="A184" t="s">
         <v>364</v>
       </c>
-      <c r="B184" s="2" t="s">
+      <c r="B184" t="s">
         <v>365</v>
       </c>
-      <c r="C184" s="2" t="str">
+      <c r="C184" t="str">
         <f>VLOOKUP(A184,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>WSM</v>
       </c>
-      <c r="D184" s="2" t="str">
+      <c r="D184" t="str">
         <f>VLOOKUP(A184,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Samoa</v>
       </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A185" s="2" t="s">
+      <c r="A185" t="s">
         <v>366</v>
       </c>
-      <c r="B185" s="2" t="s">
+      <c r="B185" t="s">
         <v>367</v>
       </c>
-      <c r="C185" s="2" t="str">
+      <c r="C185" t="str">
         <f>VLOOKUP(A185,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>SMR</v>
       </c>
-      <c r="D185" s="2" t="str">
+      <c r="D185" t="str">
         <f>VLOOKUP(A185,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>San Marino</v>
       </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A186" s="2" t="s">
+      <c r="A186" t="s">
         <v>368</v>
       </c>
-      <c r="B186" s="2" t="s">
+      <c r="B186" t="s">
         <v>369</v>
       </c>
-      <c r="C186" s="2" t="str">
+      <c r="C186" t="str">
         <f>VLOOKUP(A186,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>STP</v>
       </c>
-      <c r="D186" s="2" t="str">
+      <c r="D186" t="str">
         <f>VLOOKUP(A186,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Sao Tome and Principe</v>
       </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A187" s="2" t="s">
+      <c r="A187" t="s">
         <v>370</v>
       </c>
-      <c r="B187" s="2" t="s">
+      <c r="B187" t="s">
         <v>371</v>
       </c>
-      <c r="C187" s="2" t="str">
+      <c r="C187" t="str">
         <f>VLOOKUP(A187,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>SAU</v>
       </c>
-      <c r="D187" s="2" t="str">
+      <c r="D187" t="str">
         <f>VLOOKUP(A187,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Saudi Arabia</v>
       </c>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A188" s="2" t="s">
+      <c r="A188" t="s">
         <v>372</v>
       </c>
-      <c r="B188" s="2" t="s">
+      <c r="B188" t="s">
         <v>373</v>
       </c>
-      <c r="C188" s="2" t="str">
+      <c r="C188" t="str">
         <f>VLOOKUP(A188,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>SEN</v>
       </c>
-      <c r="D188" s="2" t="str">
+      <c r="D188" t="str">
         <f>VLOOKUP(A188,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Senegal</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A189" s="2" t="s">
+      <c r="A189" t="s">
         <v>374</v>
       </c>
-      <c r="B189" s="2" t="s">
+      <c r="B189" t="s">
         <v>375</v>
       </c>
-      <c r="C189" s="2" t="str">
+      <c r="C189" t="str">
         <f>VLOOKUP(A189,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>SRB</v>
       </c>
-      <c r="D189" s="2" t="str">
+      <c r="D189" t="str">
         <f>VLOOKUP(A189,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Serbia</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A190" s="2" t="s">
+      <c r="A190" t="s">
         <v>376</v>
       </c>
-      <c r="B190" s="2" t="s">
+      <c r="B190" t="s">
         <v>377</v>
       </c>
-      <c r="C190" s="2" t="str">
+      <c r="C190" t="str">
         <f>VLOOKUP(A190,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>SYC</v>
       </c>
-      <c r="D190" s="2" t="str">
+      <c r="D190" t="str">
         <f>VLOOKUP(A190,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Seychelles</v>
       </c>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A191" s="2" t="s">
+      <c r="A191" t="s">
         <v>378</v>
       </c>
-      <c r="B191" s="2" t="s">
+      <c r="B191" t="s">
         <v>379</v>
       </c>
-      <c r="C191" s="2" t="str">
+      <c r="C191" t="str">
         <f>VLOOKUP(A191,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>SLE</v>
       </c>
-      <c r="D191" s="2" t="str">
+      <c r="D191" t="str">
         <f>VLOOKUP(A191,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Sierra Leone</v>
       </c>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A192" s="2" t="s">
+      <c r="A192" t="s">
         <v>380</v>
       </c>
-      <c r="B192" s="2" t="s">
+      <c r="B192" t="s">
         <v>381</v>
       </c>
-      <c r="C192" s="2" t="str">
+      <c r="C192" t="str">
         <f>VLOOKUP(A192,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>SGP</v>
       </c>
-      <c r="D192" s="2" t="str">
+      <c r="D192" t="str">
         <f>VLOOKUP(A192,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Singapore</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A193" s="2" t="s">
+      <c r="A193" t="s">
         <v>382</v>
       </c>
-      <c r="B193" s="2" t="s">
+      <c r="B193" t="s">
         <v>383</v>
       </c>
-      <c r="C193" s="2" t="str">
+      <c r="C193" t="str">
         <f>VLOOKUP(A193,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>SVK</v>
       </c>
-      <c r="D193" s="2" t="str">
+      <c r="D193" t="str">
         <f>VLOOKUP(A193,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Slovak Republic</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A194" s="2" t="s">
+      <c r="A194" t="s">
         <v>384</v>
       </c>
-      <c r="B194" s="2" t="s">
+      <c r="B194" t="s">
         <v>385</v>
       </c>
-      <c r="C194" s="2" t="str">
+      <c r="C194" t="str">
         <f>VLOOKUP(A194,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>SVN</v>
       </c>
-      <c r="D194" s="2" t="str">
+      <c r="D194" t="str">
         <f>VLOOKUP(A194,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Slovenia</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A195" s="2" t="s">
+      <c r="A195" t="s">
         <v>386</v>
       </c>
-      <c r="B195" s="2" t="s">
+      <c r="B195" t="s">
         <v>387</v>
       </c>
-      <c r="C195" s="2" t="str">
+      <c r="C195" t="str">
         <f>VLOOKUP(A195,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>SLB</v>
       </c>
-      <c r="D195" s="2" t="str">
+      <c r="D195" t="str">
         <f>VLOOKUP(A195,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Solomon Islands</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A196" s="2" t="s">
+      <c r="A196" t="s">
         <v>388</v>
       </c>
-      <c r="B196" s="2" t="s">
+      <c r="B196" t="s">
         <v>389</v>
       </c>
-      <c r="C196" s="2" t="str">
+      <c r="C196" t="str">
         <f>VLOOKUP(A196,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>SOM</v>
       </c>
-      <c r="D196" s="2" t="str">
+      <c r="D196" t="str">
         <f>VLOOKUP(A196,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Somalia</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A197" s="2" t="s">
+      <c r="A197" t="s">
         <v>390</v>
       </c>
-      <c r="B197" s="2" t="s">
+      <c r="B197" t="s">
         <v>391</v>
       </c>
-      <c r="C197" s="2" t="str">
+      <c r="C197" t="str">
         <f>VLOOKUP(A197,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>ZAF</v>
       </c>
-      <c r="D197" s="2" t="str">
+      <c r="D197" t="str">
         <f>VLOOKUP(A197,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>South Africa</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A198" s="2" t="s">
+      <c r="A198" t="s">
         <v>392</v>
       </c>
-      <c r="B198" s="2" t="s">
+      <c r="B198" t="s">
         <v>393</v>
       </c>
-      <c r="C198" s="2" t="str">
+      <c r="C198" t="str">
         <f>VLOOKUP(A198,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>SSD</v>
       </c>
-      <c r="D198" s="2" t="str">
+      <c r="D198" t="str">
         <f>VLOOKUP(A198,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>South Sudan</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A199" s="2" t="s">
+      <c r="A199" t="s">
         <v>394</v>
       </c>
-      <c r="B199" s="2" t="s">
+      <c r="B199" t="s">
         <v>395</v>
       </c>
-      <c r="C199" s="2" t="str">
+      <c r="C199" t="str">
         <f>VLOOKUP(A199,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>ESP</v>
       </c>
-      <c r="D199" s="2" t="str">
+      <c r="D199" t="str">
         <f>VLOOKUP(A199,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Spain</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A200" s="2" t="s">
+      <c r="A200" t="s">
         <v>396</v>
       </c>
-      <c r="B200" s="2" t="s">
+      <c r="B200" t="s">
         <v>397</v>
       </c>
-      <c r="C200" s="2" t="str">
+      <c r="C200" t="str">
         <f>VLOOKUP(A200,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>LKA</v>
       </c>
-      <c r="D200" s="2" t="str">
+      <c r="D200" t="str">
         <f>VLOOKUP(A200,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Sri Lanka</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A201" s="2" t="s">
+      <c r="A201" t="s">
         <v>398</v>
       </c>
-      <c r="B201" s="2" t="s">
+      <c r="B201" t="s">
         <v>399</v>
       </c>
-      <c r="C201" s="2" t="str">
+      <c r="C201" t="str">
         <f>VLOOKUP(A201,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>SDN</v>
       </c>
-      <c r="D201" s="2" t="str">
+      <c r="D201" t="str">
         <f>VLOOKUP(A201,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Sudan</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A202" s="2" t="s">
+      <c r="A202" t="s">
         <v>400</v>
       </c>
-      <c r="B202" s="2" t="s">
+      <c r="B202" t="s">
         <v>401</v>
       </c>
-      <c r="C202" s="2" t="str">
+      <c r="C202" t="str">
         <f>VLOOKUP(A202,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>SUR</v>
       </c>
-      <c r="D202" s="2" t="str">
+      <c r="D202" t="str">
         <f>VLOOKUP(A202,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Suriname</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A203" s="2" t="s">
+      <c r="A203" t="s">
         <v>402</v>
       </c>
-      <c r="B203" s="2" t="s">
+      <c r="B203" t="s">
         <v>403</v>
       </c>
-      <c r="C203" s="2" t="str">
+      <c r="C203" t="str">
         <f>VLOOKUP(A203,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>SWE</v>
       </c>
-      <c r="D203" s="2" t="str">
+      <c r="D203" t="str">
         <f>VLOOKUP(A203,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Sweden</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A204" s="2" t="s">
+      <c r="A204" t="s">
         <v>404</v>
       </c>
-      <c r="B204" s="2" t="s">
+      <c r="B204" t="s">
         <v>405</v>
       </c>
-      <c r="C204" s="2" t="str">
+      <c r="C204" t="str">
         <f>VLOOKUP(A204,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>CHE</v>
       </c>
-      <c r="D204" s="2" t="str">
+      <c r="D204" t="str">
         <f>VLOOKUP(A204,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Switzerland</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A205" s="2" t="s">
+      <c r="A205" t="s">
         <v>406</v>
       </c>
-      <c r="B205" s="2" t="s">
+      <c r="B205" t="s">
         <v>407</v>
       </c>
-      <c r="C205" s="2" t="str">
+      <c r="C205" t="str">
         <f>VLOOKUP(A205,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>SYR</v>
       </c>
-      <c r="D205" s="2" t="str">
+      <c r="D205" t="str">
         <f>VLOOKUP(A205,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Syrian Arab Republic</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A206" s="2" t="s">
+      <c r="A206" t="s">
         <v>408</v>
       </c>
-      <c r="B206" s="2" t="s">
+      <c r="B206" t="s">
         <v>409</v>
       </c>
-      <c r="C206" s="2" t="str">
+      <c r="C206" t="str">
         <f>VLOOKUP(A206,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>TWN</v>
       </c>
-      <c r="D206" s="2" t="str">
+      <c r="D206" t="str">
         <f>VLOOKUP(A206,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Taiwan</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A207" s="2" t="s">
+      <c r="A207" t="s">
         <v>410</v>
       </c>
-      <c r="B207" s="2" t="s">
+      <c r="B207" t="s">
         <v>411</v>
       </c>
-      <c r="C207" s="2" t="str">
+      <c r="C207" t="str">
         <f>VLOOKUP(A207,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>TJK</v>
       </c>
-      <c r="D207" s="2" t="str">
+      <c r="D207" t="str">
         <f>VLOOKUP(A207,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Tajikistan</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A208" s="2" t="s">
+      <c r="A208" t="s">
         <v>412</v>
       </c>
-      <c r="B208" s="2" t="s">
+      <c r="B208" t="s">
         <v>413</v>
       </c>
-      <c r="C208" s="2" t="str">
+      <c r="C208" t="str">
         <f>VLOOKUP(A208,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>TZA</v>
       </c>
-      <c r="D208" s="2" t="str">
+      <c r="D208" t="str">
         <f>VLOOKUP(A208,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Tanzania</v>
       </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" s="2" t="s">
+      <c r="A209" t="s">
         <v>414</v>
       </c>
-      <c r="B209" s="2" t="s">
+      <c r="B209" t="s">
         <v>415</v>
       </c>
-      <c r="C209" s="2" t="str">
+      <c r="C209" t="str">
         <f>VLOOKUP(A209,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>THA</v>
       </c>
-      <c r="D209" s="2" t="str">
+      <c r="D209" t="str">
         <f>VLOOKUP(A209,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Thailand</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" s="2" t="s">
+      <c r="A210" t="s">
         <v>416</v>
       </c>
-      <c r="B210" s="2" t="s">
+      <c r="B210" t="s">
         <v>417</v>
       </c>
-      <c r="C210" s="2" t="str">
+      <c r="C210" t="str">
         <f>VLOOKUP(A210,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>TLS</v>
       </c>
-      <c r="D210" s="2" t="str">
+      <c r="D210" t="str">
         <f>VLOOKUP(A210,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Timor-Leste</v>
       </c>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" s="2" t="s">
+      <c r="A211" t="s">
         <v>418</v>
       </c>
-      <c r="B211" s="2" t="s">
+      <c r="B211" t="s">
         <v>419</v>
       </c>
-      <c r="C211" s="2" t="str">
+      <c r="C211" t="str">
         <f>VLOOKUP(A211,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>TGO</v>
       </c>
-      <c r="D211" s="2" t="str">
+      <c r="D211" t="str">
         <f>VLOOKUP(A211,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Togo</v>
       </c>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" s="2" t="s">
+      <c r="A212" t="s">
         <v>420</v>
       </c>
-      <c r="B212" s="2" t="s">
+      <c r="B212" t="s">
         <v>421</v>
       </c>
-      <c r="C212" s="2" t="str">
+      <c r="C212" t="str">
         <f>VLOOKUP(A212,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>TKL</v>
       </c>
-      <c r="D212" s="2" t="str">
+      <c r="D212" t="str">
         <f>VLOOKUP(A212,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Tokelau</v>
       </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" s="2" t="s">
+      <c r="A213" t="s">
         <v>422</v>
       </c>
-      <c r="B213" s="2" t="s">
+      <c r="B213" t="s">
         <v>423</v>
       </c>
-      <c r="C213" s="2" t="str">
+      <c r="C213" t="str">
         <f>VLOOKUP(A213,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>TON</v>
       </c>
-      <c r="D213" s="2" t="str">
+      <c r="D213" t="str">
         <f>VLOOKUP(A213,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Tonga</v>
       </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" s="2" t="s">
+      <c r="A214" t="s">
         <v>424</v>
       </c>
-      <c r="B214" s="2" t="s">
+      <c r="B214" t="s">
         <v>425</v>
       </c>
-      <c r="C214" s="2" t="str">
+      <c r="C214" t="str">
         <f>VLOOKUP(A214,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>TTO</v>
       </c>
-      <c r="D214" s="2" t="str">
+      <c r="D214" t="str">
         <f>VLOOKUP(A214,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Trinidad and Tobago</v>
       </c>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" s="2" t="s">
+      <c r="A215" t="s">
         <v>426</v>
       </c>
-      <c r="B215" s="2" t="s">
+      <c r="B215" t="s">
         <v>427</v>
       </c>
-      <c r="C215" s="2" t="str">
+      <c r="C215" t="str">
         <f>VLOOKUP(A215,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>TUN</v>
       </c>
-      <c r="D215" s="2" t="str">
+      <c r="D215" t="str">
         <f>VLOOKUP(A215,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Tunisia</v>
       </c>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" s="2" t="s">
+      <c r="A216" t="s">
         <v>428</v>
       </c>
-      <c r="B216" s="2" t="s">
+      <c r="B216" t="s">
         <v>429</v>
       </c>
-      <c r="C216" s="2" t="str">
+      <c r="C216" t="str">
         <f>VLOOKUP(A216,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>TUR</v>
       </c>
-      <c r="D216" s="2" t="str">
+      <c r="D216" t="str">
         <f>VLOOKUP(A216,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Turkey</v>
       </c>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" s="2" t="s">
+      <c r="A217" t="s">
         <v>430</v>
       </c>
-      <c r="B217" s="2" t="s">
+      <c r="B217" t="s">
         <v>431</v>
       </c>
-      <c r="C217" s="2" t="str">
+      <c r="C217" t="str">
         <f>VLOOKUP(A217,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>TKM</v>
       </c>
-      <c r="D217" s="2" t="str">
+      <c r="D217" t="str">
         <f>VLOOKUP(A217,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Turkmenistan</v>
       </c>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" s="2" t="s">
+      <c r="A218" t="s">
         <v>432</v>
       </c>
-      <c r="B218" s="2" t="s">
+      <c r="B218" t="s">
         <v>433</v>
       </c>
-      <c r="C218" s="2" t="str">
+      <c r="C218" t="str">
         <f>VLOOKUP(A218,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>TCA</v>
       </c>
-      <c r="D218" s="2" t="str">
+      <c r="D218" t="str">
         <f>VLOOKUP(A218,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Turks and Caicos Isl.</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A219" s="2" t="s">
+      <c r="A219" t="s">
         <v>434</v>
       </c>
-      <c r="B219" s="2" t="s">
+      <c r="B219" t="s">
         <v>435</v>
       </c>
-      <c r="C219" s="2" t="str">
+      <c r="C219" t="str">
         <f>VLOOKUP(A219,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>TUV</v>
       </c>
-      <c r="D219" s="2" t="str">
+      <c r="D219" t="str">
         <f>VLOOKUP(A219,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Tuvalu</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A220" s="2" t="s">
+      <c r="A220" t="s">
         <v>436</v>
       </c>
-      <c r="B220" s="2" t="s">
+      <c r="B220" t="s">
         <v>437</v>
       </c>
-      <c r="C220" s="2" t="str">
+      <c r="C220" t="str">
         <f>VLOOKUP(A220,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>UGA</v>
       </c>
-      <c r="D220" s="2" t="str">
+      <c r="D220" t="str">
         <f>VLOOKUP(A220,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Uganda</v>
       </c>
     </row>
     <row r="221" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
+      <c r="A221" t="s">
         <v>438</v>
       </c>
-      <c r="B221" s="2" t="s">
+      <c r="B221" t="s">
         <v>439</v>
       </c>
-      <c r="C221" s="2" t="str">
+      <c r="C221" t="str">
         <f>VLOOKUP(A221,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>UKR</v>
       </c>
-      <c r="D221" s="2" t="str">
+      <c r="D221" t="str">
         <f>VLOOKUP(A221,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Ukraine</v>
       </c>
     </row>
     <row r="222" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
+      <c r="A222" t="s">
         <v>440</v>
       </c>
-      <c r="B222" s="2" t="s">
+      <c r="B222" t="s">
         <v>441</v>
       </c>
-      <c r="C222" s="2" t="str">
+      <c r="C222" t="str">
         <f>VLOOKUP(A222,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>ARE</v>
       </c>
-      <c r="D222" s="2" t="str">
+      <c r="D222" t="str">
         <f>VLOOKUP(A222,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>United Arab Emirates</v>
       </c>
     </row>
     <row r="223" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
+      <c r="A223" t="s">
         <v>442</v>
       </c>
-      <c r="B223" s="2" t="s">
+      <c r="B223" t="s">
         <v>443</v>
       </c>
-      <c r="C223" s="2" t="str">
+      <c r="C223" t="str">
         <f>VLOOKUP(A223,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>GBR</v>
       </c>
-      <c r="D223" s="2" t="str">
+      <c r="D223" t="str">
         <f>VLOOKUP(A223,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>United Kingdom</v>
       </c>
     </row>
     <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
+      <c r="A224" t="s">
         <v>444</v>
       </c>
-      <c r="B224" s="2" t="s">
+      <c r="B224" t="s">
         <v>445</v>
       </c>
-      <c r="C224" s="2" t="str">
+      <c r="C224" t="str">
         <f>VLOOKUP(A224,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>USA</v>
       </c>
-      <c r="D224" s="2" t="str">
+      <c r="D224" t="str">
         <f>VLOOKUP(A224,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>United States</v>
       </c>
     </row>
     <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
+      <c r="A225" t="s">
         <v>446</v>
       </c>
-      <c r="B225" s="2" t="s">
+      <c r="B225" t="s">
         <v>447</v>
       </c>
-      <c r="C225" s="2" t="str">
+      <c r="C225" t="str">
         <f>VLOOKUP(A225,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>VIR</v>
       </c>
-      <c r="D225" s="2" t="str">
+      <c r="D225" t="str">
         <f>VLOOKUP(A225,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Virgin Islands (U.S.)</v>
       </c>
     </row>
     <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
+      <c r="A226" t="s">
         <v>448</v>
       </c>
-      <c r="B226" s="2" t="s">
+      <c r="B226" t="s">
         <v>449</v>
       </c>
-      <c r="C226" s="2" t="str">
+      <c r="C226" t="str">
         <f>VLOOKUP(A226,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>URY</v>
       </c>
-      <c r="D226" s="2" t="str">
+      <c r="D226" t="str">
         <f>VLOOKUP(A226,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Uruguay</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A227" s="2" t="s">
+      <c r="A227" t="s">
         <v>450</v>
       </c>
-      <c r="B227" s="2" t="s">
+      <c r="B227" t="s">
         <v>451</v>
       </c>
-      <c r="C227" s="2" t="str">
+      <c r="C227" t="str">
         <f>VLOOKUP(A227,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>UZB</v>
       </c>
-      <c r="D227" s="2" t="str">
+      <c r="D227" t="str">
         <f>VLOOKUP(A227,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Uzbekistan</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A228" s="2" t="s">
+      <c r="A228" t="s">
         <v>452</v>
       </c>
-      <c r="B228" s="2" t="s">
+      <c r="B228" t="s">
         <v>453</v>
       </c>
-      <c r="C228" s="2" t="str">
+      <c r="C228" t="str">
         <f>VLOOKUP(A228,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>VUT</v>
       </c>
-      <c r="D228" s="2" t="str">
+      <c r="D228" t="str">
         <f>VLOOKUP(A228,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Vanuatu</v>
       </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A229" s="2" t="s">
+      <c r="A229" t="s">
         <v>454</v>
       </c>
-      <c r="B229" s="2" t="s">
+      <c r="B229" t="s">
         <v>455</v>
       </c>
-      <c r="C229" s="2" t="str">
+      <c r="C229" t="str">
         <f>VLOOKUP(A229,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>VEN</v>
       </c>
-      <c r="D229" s="2" t="str">
+      <c r="D229" t="str">
         <f>VLOOKUP(A229,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Venezuela</v>
       </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A230" s="2" t="s">
+      <c r="A230" t="s">
         <v>456</v>
       </c>
-      <c r="B230" s="2" t="s">
+      <c r="B230" t="s">
         <v>457</v>
       </c>
-      <c r="C230" s="2" t="str">
+      <c r="C230" t="str">
         <f>VLOOKUP(A230,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>VNM</v>
       </c>
-      <c r="D230" s="2" t="str">
+      <c r="D230" t="str">
         <f>VLOOKUP(A230,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Vietnam</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A231" s="2" t="s">
+      <c r="A231" t="s">
         <v>458</v>
       </c>
-      <c r="B231" s="2" t="s">
+      <c r="B231" t="s">
         <v>459</v>
       </c>
-      <c r="C231" s="2" t="str">
+      <c r="C231" t="str">
         <f>VLOOKUP(A231,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>WLF</v>
       </c>
-      <c r="D231" s="2" t="str">
+      <c r="D231" t="str">
         <f>VLOOKUP(A231,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Wallis and Futura Isl.</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A232" s="2" t="s">
+      <c r="A232" t="s">
         <v>460</v>
       </c>
-      <c r="B232" s="2" t="s">
+      <c r="B232" t="s">
         <v>461</v>
       </c>
-      <c r="C232" s="2" t="str">
+      <c r="C232" t="str">
         <f>VLOOKUP(A232,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>ESH</v>
       </c>
-      <c r="D232" s="2" t="str">
+      <c r="D232" t="str">
         <f>VLOOKUP(A232,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Western Sahara</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A233" s="2" t="s">
+      <c r="A233" t="s">
         <v>462</v>
       </c>
-      <c r="B233" s="2" t="s">
+      <c r="B233" t="s">
         <v>463</v>
       </c>
-      <c r="C233" s="2" t="str">
+      <c r="C233" t="str">
         <f>VLOOKUP(A233,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>YEM</v>
       </c>
-      <c r="D233" s="2" t="str">
+      <c r="D233" t="str">
         <f>VLOOKUP(A233,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Yemen, Rep.</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A234" s="2" t="s">
+      <c r="A234" t="s">
         <v>464</v>
       </c>
-      <c r="B234" s="2" t="s">
+      <c r="B234" t="s">
         <v>465</v>
       </c>
-      <c r="C234" s="2" t="str">
+      <c r="C234" t="str">
         <f>VLOOKUP(A234,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>ZMB</v>
       </c>
-      <c r="D234" s="2" t="str">
+      <c r="D234" t="str">
         <f>VLOOKUP(A234,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Zambia</v>
       </c>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A235" s="2" t="s">
+      <c r="A235" t="s">
         <v>466</v>
       </c>
-      <c r="B235" s="2" t="s">
+      <c r="B235" t="s">
         <v>467</v>
       </c>
-      <c r="C235" s="2" t="str">
+      <c r="C235" t="str">
         <f>VLOOKUP(A235,Sheet2!$A$1:$B$285,1,FALSE)</f>
         <v>ZWE</v>
       </c>
-      <c r="D235" s="2" t="str">
+      <c r="D235" t="str">
         <f>VLOOKUP(A235,Sheet2!$A$1:$B$285,2,FALSE)</f>
         <v>Zimbabwe</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>616</v>
+      </c>
+      <c r="B236" t="s">
+        <v>601</v>
+      </c>
+      <c r="C236" t="s">
+        <v>602</v>
+      </c>
+      <c r="D236" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>618</v>
+      </c>
+      <c r="B237" t="s">
+        <v>617</v>
+      </c>
+      <c r="C237" t="s">
+        <v>620</v>
+      </c>
+      <c r="D237" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>621</v>
+      </c>
+      <c r="B238" t="s">
+        <v>622</v>
+      </c>
+      <c r="C238" t="s">
+        <v>627</v>
+      </c>
+      <c r="D238" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>623</v>
+      </c>
+      <c r="B239" t="s">
+        <v>624</v>
+      </c>
+      <c r="C239" t="s">
+        <v>629</v>
+      </c>
+      <c r="D239" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>625</v>
+      </c>
+      <c r="B240" t="s">
+        <v>626</v>
+      </c>
+      <c r="C240" t="s">
+        <v>631</v>
+      </c>
+      <c r="D240" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>651</v>
+      </c>
+      <c r="B241" t="s">
+        <v>652</v>
+      </c>
+      <c r="C241" t="s">
+        <v>633</v>
+      </c>
+      <c r="D241" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C242" t="s">
+        <v>634</v>
+      </c>
+      <c r="D242" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>646</v>
+      </c>
+      <c r="B243" t="s">
+        <v>641</v>
+      </c>
+      <c r="C243" t="s">
+        <v>635</v>
+      </c>
+      <c r="D243" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>647</v>
+      </c>
+      <c r="B244" t="s">
+        <v>648</v>
+      </c>
+      <c r="C244" t="s">
+        <v>636</v>
+      </c>
+      <c r="D244" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>645</v>
+      </c>
+      <c r="B245" t="s">
+        <v>643</v>
+      </c>
+      <c r="C245" t="s">
+        <v>637</v>
+      </c>
+      <c r="D245" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>649</v>
+      </c>
+      <c r="B246" t="s">
+        <v>650</v>
+      </c>
+      <c r="C246" t="s">
+        <v>638</v>
+      </c>
+      <c r="D246" t="s">
+        <v>644</v>
       </c>
     </row>
   </sheetData>
